--- a/data_bsvar.xlsx
+++ b/data_bsvar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mefp\osmar.bolivar\Desktop\Research\Sentiment-Analysis-Criptocurrency\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\osmar\OneDrive\Escritorio\GitHub Repositories\Sentiment-Analysis-Criptocurrency\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3E50EE-CCD2-430F-A75B-5290843EFE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220F6942-9B42-4702-8AB6-263D1863723F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7B3D26F8-3A6E-431C-9A1C-3D7BE360659B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7B3D26F8-3A6E-431C-9A1C-3D7BE360659B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -130,9 +132,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -170,7 +172,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -276,7 +278,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -418,7 +420,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -429,15 +431,15 @@
   <dimension ref="A1:D833"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B792" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -448,7 +450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44927</v>
       </c>
@@ -462,7 +464,7 @@
         <v>3.5462979979853779</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44928</v>
       </c>
@@ -477,7 +479,7 @@
         <v>3.5558617046038479</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44929</v>
       </c>
@@ -492,7 +494,7 @@
         <v>3.4931677223508908</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44930</v>
       </c>
@@ -507,7 +509,7 @@
         <v>3.5283209142276322</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44931</v>
       </c>
@@ -522,7 +524,7 @@
         <v>3.576147265700599</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44932</v>
       </c>
@@ -537,7 +539,7 @@
         <v>3.635186076312281</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44933</v>
       </c>
@@ -554,7 +556,7 @@
         <v>3.635186076312281</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44934</v>
       </c>
@@ -569,7 +571,7 @@
         <v>3.7094747474958329</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44935</v>
       </c>
@@ -584,7 +586,7 @@
         <v>3.7087677818241809</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44936</v>
       </c>
@@ -599,7 +601,7 @@
         <v>3.6998314052876622</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44937</v>
       </c>
@@ -614,7 +616,7 @@
         <v>3.6872321960264518</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44938</v>
       </c>
@@ -629,7 +631,7 @@
         <v>3.6920899501915549</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44939</v>
       </c>
@@ -644,7 +646,7 @@
         <v>3.7120997136002889</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44940</v>
       </c>
@@ -659,7 +661,7 @@
         <v>3.72820710353743</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44941</v>
       </c>
@@ -674,7 +676,7 @@
         <v>3.7411925946972961</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44942</v>
       </c>
@@ -689,7 +691,7 @@
         <v>3.7446824673831771</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44943</v>
       </c>
@@ -704,7 +706,7 @@
         <v>3.7237758236873031</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44944</v>
       </c>
@@ -719,7 +721,7 @@
         <v>3.7046002999857062</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44945</v>
       </c>
@@ -734,7 +736,7 @@
         <v>3.6735679228752849</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44946</v>
       </c>
@@ -749,7 +751,7 @@
         <v>3.6480329913184351</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44947</v>
       </c>
@@ -764,7 +766,7 @@
         <v>3.624668629905337</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44948</v>
       </c>
@@ -779,7 +781,7 @@
         <v>3.6031788517982082</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44949</v>
       </c>
@@ -794,7 +796,7 @@
         <v>3.5833191461310521</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44950</v>
       </c>
@@ -809,7 +811,7 @@
         <v>3.5694151750520851</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44951</v>
       </c>
@@ -824,7 +826,7 @@
         <v>3.543449443807118</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>44952</v>
       </c>
@@ -839,7 +841,7 @@
         <v>3.524430492789576</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>44953</v>
       </c>
@@ -854,7 +856,7 @@
         <v>3.5010561591052132</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44954</v>
       </c>
@@ -869,7 +871,7 @@
         <v>3.4787248852262098</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>44955</v>
       </c>
@@ -884,7 +886,7 @@
         <v>3.457328768414079</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>44956</v>
       </c>
@@ -899,7 +901,7 @@
         <v>3.443037787163739</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>44957</v>
       </c>
@@ -914,7 +916,7 @@
         <v>3.4165929859406292</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>44958</v>
       </c>
@@ -929,7 +931,7 @@
         <v>2.6900730337908061</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>44959</v>
       </c>
@@ -944,7 +946,7 @@
         <v>2.5475115128121648</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>44960</v>
       </c>
@@ -959,7 +961,7 @@
         <v>2.4697397679321771</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>44961</v>
       </c>
@@ -974,7 +976,7 @@
         <v>2.4377703770307591</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>44962</v>
       </c>
@@ -989,7 +991,7 @@
         <v>2.4241219277207682</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>44963</v>
       </c>
@@ -1004,7 +1006,7 @@
         <v>2.3995903122719722</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>44964</v>
       </c>
@@ -1019,7 +1021,7 @@
         <v>2.392775499103879</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>44965</v>
       </c>
@@ -1034,7 +1036,7 @@
         <v>2.424539010904657</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>44966</v>
       </c>
@@ -1049,7 +1051,7 @@
         <v>2.4724587011945851</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>44967</v>
       </c>
@@ -1063,7 +1065,7 @@
         <v>2.49066128095988</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>44968</v>
       </c>
@@ -1078,7 +1080,7 @@
         <v>2.5055124843217409</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>44969</v>
       </c>
@@ -1093,7 +1095,7 @@
         <v>2.5178501553810269</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44970</v>
       </c>
@@ -1107,7 +1109,7 @@
         <v>2.537904083378749</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44971</v>
       </c>
@@ -1121,7 +1123,7 @@
         <v>2.546954118280746</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44972</v>
       </c>
@@ -1135,7 +1137,7 @@
         <v>2.5433562120173629</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>44973</v>
       </c>
@@ -1149,7 +1151,7 @@
         <v>2.543195895734752</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>44974</v>
       </c>
@@ -1163,7 +1165,7 @@
         <v>2.5381962215278548</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>44975</v>
       </c>
@@ -1178,7 +1180,7 @@
         <v>2.5347004050318569</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>44976</v>
       </c>
@@ -1195,7 +1197,7 @@
         <v>2.5347004050318569</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>44977</v>
       </c>
@@ -1212,7 +1214,7 @@
         <v>2.5347004050318569</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>44978</v>
       </c>
@@ -1227,7 +1229,7 @@
         <v>2.529557133399615</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>44979</v>
       </c>
@@ -1241,7 +1243,7 @@
         <v>2.546463764793538</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>44980</v>
       </c>
@@ -1255,7 +1257,7 @@
         <v>2.562282986663488</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>44981</v>
       </c>
@@ -1269,7 +1271,7 @@
         <v>2.5847762555853739</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>44982</v>
       </c>
@@ -1284,7 +1286,7 @@
         <v>2.6084056429268458</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>44983</v>
       </c>
@@ -1299,7 +1301,7 @@
         <v>2.630574075301968</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>44984</v>
       </c>
@@ -1313,7 +1315,7 @@
         <v>2.6375671832888652</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>44985</v>
       </c>
@@ -1327,7 +1329,7 @@
         <v>2.638532877497517</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>44986</v>
       </c>
@@ -1342,7 +1344,7 @@
         <v>2.4752691095340902</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>44987</v>
       </c>
@@ -1357,7 +1359,7 @@
         <v>2.375110841885578</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>44988</v>
       </c>
@@ -1371,7 +1373,7 @@
         <v>2.263339261259695</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>44989</v>
       </c>
@@ -1386,7 +1388,7 @@
         <v>2.057740573080086</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>44990</v>
       </c>
@@ -1401,7 +1403,7 @@
         <v>1.93632288983251</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>44991</v>
       </c>
@@ -1415,7 +1417,7 @@
         <v>1.9354957672874511</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>44992</v>
       </c>
@@ -1429,7 +1431,7 @@
         <v>1.9371658821129121</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>44993</v>
       </c>
@@ -1443,7 +1445,7 @@
         <v>1.948654603014919</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>44994</v>
       </c>
@@ -1457,7 +1459,7 @@
         <v>1.9485566324521211</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>44995</v>
       </c>
@@ -1471,7 +1473,7 @@
         <v>1.959532337522238</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>44996</v>
       </c>
@@ -1485,7 +1487,7 @@
         <v>1.9700281367180641</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>44997</v>
       </c>
@@ -1499,7 +1501,7 @@
         <v>1.9794057595374179</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>44998</v>
       </c>
@@ -1513,7 +1515,7 @@
         <v>1.997462682903036</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>44999</v>
       </c>
@@ -1527,7 +1529,7 @@
         <v>2.0193382199888701</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>45000</v>
       </c>
@@ -1542,7 +1544,7 @@
         <v>2.0462080377952279</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>45001</v>
       </c>
@@ -1556,7 +1558,7 @@
         <v>2.0692025998989072</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>45002</v>
       </c>
@@ -1571,7 +1573,7 @@
         <v>2.1035925627082279</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>45003</v>
       </c>
@@ -1586,7 +1588,7 @@
         <v>2.1356980195673509</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>45004</v>
       </c>
@@ -1601,7 +1603,7 @@
         <v>2.1651105796291019</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>45005</v>
       </c>
@@ -1615,7 +1617,7 @@
         <v>2.193127882402234</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>45006</v>
       </c>
@@ -1630,7 +1632,7 @@
         <v>2.21747408350131</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>45007</v>
       </c>
@@ -1645,7 +1647,7 @@
         <v>2.2449204897345831</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>45008</v>
       </c>
@@ -1660,7 +1662,7 @@
         <v>2.2665574548322889</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>45009</v>
       </c>
@@ -1674,7 +1676,7 @@
         <v>2.2758966699948862</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>45010</v>
       </c>
@@ -1689,7 +1691,7 @@
         <v>2.2861412900112161</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>45011</v>
       </c>
@@ -1704,7 +1706,7 @@
         <v>2.2954527703117882</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>45012</v>
       </c>
@@ -1719,7 +1721,7 @@
         <v>2.3077853356002431</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>45013</v>
       </c>
@@ -1733,7 +1735,7 @@
         <v>2.3167965932800811</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>45014</v>
       </c>
@@ -1747,7 +1749,7 @@
         <v>2.3229697085346408</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>45015</v>
       </c>
@@ -1761,7 +1763,7 @@
         <v>2.330542986052853</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>45016</v>
       </c>
@@ -1776,7 +1778,7 @@
         <v>2.328922304326289</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>45017</v>
       </c>
@@ -1791,7 +1793,7 @@
         <v>2.3159590510521988</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>45018</v>
       </c>
@@ -1806,7 +1808,7 @@
         <v>2.3944947949586779</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>45019</v>
       </c>
@@ -1821,7 +1823,7 @@
         <v>2.4195891394204772</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>45020</v>
       </c>
@@ -1836,7 +1838,7 @@
         <v>2.4665118229894798</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>45021</v>
       </c>
@@ -1851,7 +1853,7 @@
         <v>2.460114429746818</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>45022</v>
       </c>
@@ -1866,7 +1868,7 @@
         <v>2.4661732768748892</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>45023</v>
       </c>
@@ -1881,7 +1883,7 @@
         <v>2.4704006063728952</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>45024</v>
       </c>
@@ -1896,7 +1898,7 @@
         <v>2.4730808644267959</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>45025</v>
       </c>
@@ -1911,7 +1913,7 @@
         <v>2.4747297415179599</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>45026</v>
       </c>
@@ -1926,7 +1928,7 @@
         <v>2.4882030458614421</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>45027</v>
       </c>
@@ -1941,7 +1943,7 @@
         <v>2.4707288508443468</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>45028</v>
       </c>
@@ -1957,7 +1959,7 @@
         <v>2.4707288508443468</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>45029</v>
       </c>
@@ -1972,7 +1974,7 @@
         <v>2.441936152454792</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>45030</v>
       </c>
@@ -1987,7 +1989,7 @@
         <v>2.438769491540361</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>45031</v>
       </c>
@@ -2002,7 +2004,7 @@
         <v>2.421578228847145</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>45032</v>
       </c>
@@ -2017,7 +2019,7 @@
         <v>2.4041035940509849</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>45033</v>
       </c>
@@ -2032,7 +2034,7 @@
         <v>2.3863020376152519</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>45034</v>
       </c>
@@ -2047,7 +2049,7 @@
         <v>2.368152334941517</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>45035</v>
       </c>
@@ -2062,7 +2064,7 @@
         <v>2.3472797997270218</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>45036</v>
       </c>
@@ -2077,7 +2079,7 @@
         <v>2.3295215223017358</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>45037</v>
       </c>
@@ -2092,7 +2094,7 @@
         <v>2.319912552997982</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>45038</v>
       </c>
@@ -2107,7 +2109,7 @@
         <v>2.3175305745713972</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>45039</v>
       </c>
@@ -2122,7 +2124,7 @@
         <v>2.3161163522043582</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>45040</v>
       </c>
@@ -2136,7 +2138,7 @@
         <v>2.321188216877065</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>45041</v>
       </c>
@@ -2151,7 +2153,7 @@
         <v>2.3207632528331619</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>45042</v>
       </c>
@@ -2166,7 +2168,7 @@
         <v>2.3202676667706048</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>45043</v>
       </c>
@@ -2181,7 +2183,7 @@
         <v>2.3238516327175791</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>45044</v>
       </c>
@@ -2195,7 +2197,7 @@
         <v>2.335479948786841</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>45045</v>
       </c>
@@ -2210,7 +2212,7 @@
         <v>2.35099817135848</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>45046</v>
       </c>
@@ -2225,7 +2227,7 @@
         <v>2.3657147293873781</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>45047</v>
       </c>
@@ -2239,7 +2241,7 @@
         <v>2.753270280064076</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>45048</v>
       </c>
@@ -2254,7 +2256,7 @@
         <v>2.7068825377006851</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>45049</v>
       </c>
@@ -2269,7 +2271,7 @@
         <v>2.7530300415224902</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>45050</v>
       </c>
@@ -2283,7 +2285,7 @@
         <v>2.8286702415804839</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>45051</v>
       </c>
@@ -2298,7 +2300,7 @@
         <v>2.9012484044513061</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>45052</v>
       </c>
@@ -2313,7 +2315,7 @@
         <v>2.9669683071016908</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>45053</v>
       </c>
@@ -2327,7 +2329,7 @@
         <v>3.0141437414097512</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>45054</v>
       </c>
@@ -2342,7 +2344,7 @@
         <v>3.074549398597207</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>45055</v>
       </c>
@@ -2356,7 +2358,7 @@
         <v>3.1194868894722858</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>45056</v>
       </c>
@@ -2371,7 +2373,7 @@
         <v>3.1483919709228809</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>45057</v>
       </c>
@@ -2386,7 +2388,7 @@
         <v>3.158442222985379</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>45058</v>
       </c>
@@ -2401,7 +2403,7 @@
         <v>3.1472121231001751</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>45059</v>
       </c>
@@ -2416,7 +2418,7 @@
         <v>3.1306930491152039</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>45060</v>
       </c>
@@ -2431,7 +2433,7 @@
         <v>3.1168213204809141</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>45061</v>
       </c>
@@ -2445,7 +2447,7 @@
         <v>3.1038646422052372</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>45062</v>
       </c>
@@ -2460,7 +2462,7 @@
         <v>3.0910056078859398</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>45063</v>
       </c>
@@ -2475,7 +2477,7 @@
         <v>3.0903136298575191</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>45064</v>
       </c>
@@ -2490,7 +2492,7 @@
         <v>3.0907571483495748</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>45065</v>
       </c>
@@ -2505,7 +2507,7 @@
         <v>3.0981060609417441</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>45066</v>
       </c>
@@ -2520,7 +2522,7 @@
         <v>3.095798900606797</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>45067</v>
       </c>
@@ -2535,7 +2537,7 @@
         <v>3.0937344196262262</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>45068</v>
       </c>
@@ -2550,7 +2552,7 @@
         <v>3.1018738701927608</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>45069</v>
       </c>
@@ -2565,7 +2567,7 @@
         <v>3.1101129218905328</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>45070</v>
       </c>
@@ -2580,7 +2582,7 @@
         <v>3.1248806745155639</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>45071</v>
       </c>
@@ -2594,7 +2596,7 @@
         <v>3.1412022549098202</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>45072</v>
       </c>
@@ -2609,7 +2611,7 @@
         <v>3.152392023061604</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>45073</v>
       </c>
@@ -2624,7 +2626,7 @@
         <v>3.1503847392163351</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>45074</v>
       </c>
@@ -2639,7 +2641,7 @@
         <v>3.1484131939958142</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>45075</v>
       </c>
@@ -2654,7 +2656,7 @@
         <v>3.1436248792250692</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>45076</v>
       </c>
@@ -2669,7 +2671,7 @@
         <v>3.133097966797564</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>45077</v>
       </c>
@@ -2684,7 +2686,7 @@
         <v>3.1220504017216002</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>45078</v>
       </c>
@@ -2698,7 +2700,7 @@
         <v>2.5538041021551532</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>45079</v>
       </c>
@@ -2713,7 +2715,7 @@
         <v>2.5408997105146689</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>45080</v>
       </c>
@@ -2728,7 +2730,7 @@
         <v>2.576886529651008</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>45081</v>
       </c>
@@ -2743,7 +2745,7 @@
         <v>2.594368068476371</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>45082</v>
       </c>
@@ -2758,7 +2760,7 @@
         <v>2.5756220333345601</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>45083</v>
       </c>
@@ -2773,7 +2775,7 @@
         <v>2.5388645680589028</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>45084</v>
       </c>
@@ -2788,7 +2790,7 @@
         <v>2.5638110839046879</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>45085</v>
       </c>
@@ -2803,7 +2805,7 @@
         <v>2.580864718119384</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>45086</v>
       </c>
@@ -2818,7 +2820,7 @@
         <v>2.5568911820113231</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>45087</v>
       </c>
@@ -2833,7 +2835,7 @@
         <v>2.547448098683764</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>45088</v>
       </c>
@@ -2848,7 +2850,7 @@
         <v>2.5391747066840118</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>45089</v>
       </c>
@@ -2863,7 +2865,7 @@
         <v>2.520703158186071</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>45090</v>
       </c>
@@ -2878,7 +2880,7 @@
         <v>2.5122069992143041</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>45091</v>
       </c>
@@ -2893,7 +2895,7 @@
         <v>2.4952190447494131</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>45092</v>
       </c>
@@ -2908,7 +2910,7 @@
         <v>2.477163648197922</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>45093</v>
       </c>
@@ -2923,7 +2925,7 @@
         <v>2.455134893709181</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>45094</v>
       </c>
@@ -2938,7 +2940,7 @@
         <v>2.4524423000319859</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>45095</v>
       </c>
@@ -2953,7 +2955,7 @@
         <v>2.4499675022775769</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>45096</v>
       </c>
@@ -2970,7 +2972,7 @@
         <v>2.4499675022775769</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>45097</v>
       </c>
@@ -2985,7 +2987,7 @@
         <v>2.4527538451316628</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>45098</v>
       </c>
@@ -3000,7 +3002,7 @@
         <v>2.456431688448057</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>45099</v>
       </c>
@@ -3015,7 +3017,7 @@
         <v>2.4649556819809759</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>45100</v>
       </c>
@@ -3030,7 +3032,7 @@
         <v>2.467909755150862</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>45101</v>
       </c>
@@ -3045,7 +3047,7 @@
         <v>2.481952626427351</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>45102</v>
       </c>
@@ -3060,7 +3062,7 @@
         <v>2.4941872429361518</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>45103</v>
       </c>
@@ -3077,7 +3079,7 @@
         <v>2.4941872429361518</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>45104</v>
       </c>
@@ -3092,7 +3094,7 @@
         <v>2.5270741670033892</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>45105</v>
       </c>
@@ -3109,7 +3111,7 @@
         <v>2.5270741670033892</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>45106</v>
       </c>
@@ -3124,7 +3126,7 @@
         <v>2.5657223253438222</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>45107</v>
       </c>
@@ -3139,7 +3141,7 @@
         <v>2.5711469573916799</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>45108</v>
       </c>
@@ -3153,7 +3155,7 @@
         <v>2.7137094465789202</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>45109</v>
       </c>
@@ -3168,7 +3170,7 @@
         <v>2.7096732548418632</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>45110</v>
       </c>
@@ -3183,7 +3185,7 @@
         <v>2.7757437578769739</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>45111</v>
       </c>
@@ -3198,7 +3200,7 @@
         <v>2.74790930225678</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>45112</v>
       </c>
@@ -3213,7 +3215,7 @@
         <v>2.7547918875284738</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>45113</v>
       </c>
@@ -3228,7 +3230,7 @@
         <v>2.755478107824878</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>45114</v>
       </c>
@@ -3243,7 +3245,7 @@
         <v>2.7460845401459739</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>45115</v>
       </c>
@@ -3258,7 +3260,7 @@
         <v>2.740744660520309</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>45116</v>
       </c>
@@ -3273,7 +3275,7 @@
         <v>2.7353492169486402</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>45117</v>
       </c>
@@ -3288,7 +3290,7 @@
         <v>2.709095232092718</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>45118</v>
       </c>
@@ -3303,7 +3305,7 @@
         <v>2.699701919400705</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>45119</v>
       </c>
@@ -3318,7 +3320,7 @@
         <v>2.6968360296004419</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>45120</v>
       </c>
@@ -3333,7 +3335,7 @@
         <v>2.7091430975386102</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>45121</v>
       </c>
@@ -3348,7 +3350,7 @@
         <v>2.688839216555142</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>45122</v>
       </c>
@@ -3365,7 +3367,7 @@
         <v>2.688839216555142</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>45123</v>
       </c>
@@ -3380,7 +3382,7 @@
         <v>2.655694846461782</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>45124</v>
       </c>
@@ -3395,7 +3397,7 @@
         <v>2.6558877307507518</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>45125</v>
       </c>
@@ -3410,7 +3412,7 @@
         <v>2.6580853234578199</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>45126</v>
       </c>
@@ -3425,7 +3427,7 @@
         <v>2.6681366568833051</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>45127</v>
       </c>
@@ -3440,7 +3442,7 @@
         <v>2.681332631404485</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>45128</v>
       </c>
@@ -3455,7 +3457,7 @@
         <v>2.6976527282258158</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>45129</v>
       </c>
@@ -3470,7 +3472,7 @@
         <v>2.7174625493632081</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>45130</v>
       </c>
@@ -3485,7 +3487,7 @@
         <v>2.735541108998838</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>45131</v>
       </c>
@@ -3500,7 +3502,7 @@
         <v>2.7530691086185159</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>45132</v>
       </c>
@@ -3515,7 +3517,7 @@
         <v>2.761699761269059</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>45133</v>
       </c>
@@ -3530,7 +3532,7 @@
         <v>2.7796910458000159</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>45134</v>
       </c>
@@ -3545,7 +3547,7 @@
         <v>2.7925037634699121</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>45135</v>
       </c>
@@ -3560,7 +3562,7 @@
         <v>2.8089555273275448</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>45136</v>
       </c>
@@ -3575,7 +3577,7 @@
         <v>2.837026848539093</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>45137</v>
       </c>
@@ -3590,7 +3592,7 @@
         <v>2.8635558744472531</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>45138</v>
       </c>
@@ -3605,7 +3607,7 @@
         <v>2.8865381680973599</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>45139</v>
       </c>
@@ -3619,7 +3621,7 @@
         <v>3.744116092540458</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>45140</v>
       </c>
@@ -3634,7 +3636,7 @@
         <v>3.527176651396128</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>45141</v>
       </c>
@@ -3649,7 +3651,7 @@
         <v>3.491075274517303</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>45142</v>
       </c>
@@ -3664,7 +3666,7 @@
         <v>3.542923673375391</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>45143</v>
       </c>
@@ -3679,7 +3681,7 @@
         <v>3.503744009409536</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>45144</v>
       </c>
@@ -3694,7 +3696,7 @@
         <v>3.47610933825153</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>45145</v>
       </c>
@@ -3709,7 +3711,7 @@
         <v>3.4550718058408658</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>45146</v>
       </c>
@@ -3724,7 +3726,7 @@
         <v>3.4289586868187718</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>45147</v>
       </c>
@@ -3739,7 +3741,7 @@
         <v>3.388634265009423</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>45148</v>
       </c>
@@ -3754,7 +3756,7 @@
         <v>3.3451384364057719</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>45149</v>
       </c>
@@ -3769,7 +3771,7 @@
         <v>3.3185516491602671</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>45150</v>
       </c>
@@ -3784,7 +3786,7 @@
         <v>3.3052146400233808</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>45151</v>
       </c>
@@ -3799,7 +3801,7 @@
         <v>3.2936400695588408</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>45152</v>
       </c>
@@ -3814,7 +3816,7 @@
         <v>3.2910263968919411</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>45153</v>
       </c>
@@ -3829,7 +3831,7 @@
         <v>3.2836020386014182</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>45154</v>
       </c>
@@ -3844,7 +3846,7 @@
         <v>3.2825991870719551</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>45155</v>
       </c>
@@ -3859,7 +3861,7 @@
         <v>3.2748355674224099</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>45156</v>
       </c>
@@ -3874,7 +3876,7 @@
         <v>3.2452867980814242</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>45157</v>
       </c>
@@ -3889,7 +3891,7 @@
         <v>3.2054824129274921</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>45158</v>
       </c>
@@ -3904,7 +3906,7 @@
         <v>3.1693351632334799</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>45159</v>
       </c>
@@ -3919,7 +3921,7 @@
         <v>3.1367776386626698</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>45160</v>
       </c>
@@ -3934,7 +3936,7 @@
         <v>3.1194121640624668</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>45161</v>
       </c>
@@ -3949,7 +3951,7 @@
         <v>3.1154736349251788</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>45162</v>
       </c>
@@ -3964,7 +3966,7 @@
         <v>3.1099986110544409</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>45163</v>
       </c>
@@ -3979,7 +3981,7 @@
         <v>3.091849667569702</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>45164</v>
       </c>
@@ -3994,7 +3996,7 @@
         <v>3.065841093910572</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>45165</v>
       </c>
@@ -4009,7 +4011,7 @@
         <v>3.0415326018669728</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>45166</v>
       </c>
@@ -4024,7 +4026,7 @@
         <v>3.023805736800484</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>45167</v>
       </c>
@@ -4039,7 +4041,7 @@
         <v>3.0088786115316379</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>45168</v>
       </c>
@@ -4054,7 +4056,7 @@
         <v>3.006908564266304</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>45169</v>
       </c>
@@ -4069,7 +4071,7 @@
         <v>3.000691834163538</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>45170</v>
       </c>
@@ -4084,7 +4086,7 @@
         <v>2.808428584074476</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>45171</v>
       </c>
@@ -4099,7 +4101,7 @@
         <v>2.809682751538277</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>45172</v>
       </c>
@@ -4114,7 +4116,7 @@
         <v>2.8108553372713492</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>45173</v>
       </c>
@@ -4129,7 +4131,7 @@
         <v>2.8503270165024941</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>45174</v>
       </c>
@@ -4144,7 +4146,7 @@
         <v>2.8237979286556918</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>45175</v>
       </c>
@@ -4159,7 +4161,7 @@
         <v>2.8044366176835291</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>45176</v>
       </c>
@@ -4174,7 +4176,7 @@
         <v>2.786691148969747</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>45177</v>
       </c>
@@ -4189,7 +4191,7 @@
         <v>2.7495393403757169</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>45178</v>
       </c>
@@ -4204,7 +4206,7 @@
         <v>2.7410383553034912</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>45179</v>
       </c>
@@ -4221,7 +4223,7 @@
         <v>2.7410383553034912</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>45180</v>
       </c>
@@ -4236,7 +4238,7 @@
         <v>2.7380708186928322</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>45181</v>
       </c>
@@ -4251,7 +4253,7 @@
         <v>2.7446576598005858</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>45182</v>
       </c>
@@ -4266,7 +4268,7 @@
         <v>2.767604885676421</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>45183</v>
       </c>
@@ -4281,7 +4283,7 @@
         <v>2.7791455247859118</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>45184</v>
       </c>
@@ -4296,7 +4298,7 @@
         <v>2.7639203383009958</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>45185</v>
       </c>
@@ -4311,7 +4313,7 @@
         <v>2.7667278232921468</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>45186</v>
       </c>
@@ -4326,7 +4328,7 @@
         <v>2.7703419473405639</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>45187</v>
       </c>
@@ -4341,7 +4343,7 @@
         <v>2.771365858034974</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>45188</v>
       </c>
@@ -4356,7 +4358,7 @@
         <v>2.7747675489844519</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>45189</v>
       </c>
@@ -4371,7 +4373,7 @@
         <v>2.7935969059008472</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>45190</v>
       </c>
@@ -4385,7 +4387,7 @@
         <v>2.8217494887391692</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>45191</v>
       </c>
@@ -4399,7 +4401,7 @@
         <v>2.8348829899156511</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>45192</v>
       </c>
@@ -4413,7 +4415,7 @@
         <v>2.8355854804723211</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>45193</v>
       </c>
@@ -4427,7 +4429,7 @@
         <v>2.836190415045662</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>45194</v>
       </c>
@@ -4441,7 +4443,7 @@
         <v>2.824754911739932</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>45195</v>
       </c>
@@ -4455,7 +4457,7 @@
         <v>2.8165085456340191</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>45196</v>
       </c>
@@ -4469,7 +4471,7 @@
         <v>2.8101177193076698</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>45197</v>
       </c>
@@ -4483,7 +4485,7 @@
         <v>2.8029977979803311</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>45198</v>
       </c>
@@ -4497,7 +4499,7 @@
         <v>2.7938727194448001</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>45199</v>
       </c>
@@ -4514,7 +4516,7 @@
         <v>2.7938727194448001</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>45200</v>
       </c>
@@ -4528,7 +4530,7 @@
         <v>2.3003728824358158</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>45201</v>
       </c>
@@ -4542,7 +4544,7 @@
         <v>2.3024712606090678</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>45202</v>
       </c>
@@ -4556,7 +4558,7 @@
         <v>2.2836445191314518</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>45203</v>
       </c>
@@ -4570,7 +4572,7 @@
         <v>2.270253589415959</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>45204</v>
       </c>
@@ -4584,7 +4586,7 @@
         <v>2.2445533087609091</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>45205</v>
       </c>
@@ -4598,7 +4600,7 @@
         <v>2.1949026402853868</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>45206</v>
       </c>
@@ -4612,7 +4614,7 @@
         <v>2.1537141546143319</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>45207</v>
       </c>
@@ -4626,7 +4628,7 @@
         <v>2.1238706300906882</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>45208</v>
       </c>
@@ -4640,7 +4642,7 @@
         <v>2.1285865297643261</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>45209</v>
       </c>
@@ -4654,7 +4656,7 @@
         <v>2.1440034478507242</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>45210</v>
       </c>
@@ -4668,7 +4670,7 @@
         <v>2.1469962405858438</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>45211</v>
       </c>
@@ -4682,7 +4684,7 @@
         <v>2.1366673369559321</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>45212</v>
       </c>
@@ -4696,7 +4698,7 @@
         <v>2.1330347378250272</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>45213</v>
       </c>
@@ -4710,7 +4712,7 @@
         <v>2.1240593721689081</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>45214</v>
       </c>
@@ -4724,7 +4726,7 @@
         <v>2.1158723980156529</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>45215</v>
       </c>
@@ -4738,7 +4740,7 @@
         <v>2.1217504574079391</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>45216</v>
       </c>
@@ -4752,7 +4754,7 @@
         <v>2.117517638385205</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>45217</v>
       </c>
@@ -4766,7 +4768,7 @@
         <v>2.1154172075804931</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>45218</v>
       </c>
@@ -4780,7 +4782,7 @@
         <v>2.1079618290279032</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>45219</v>
       </c>
@@ -4794,7 +4796,7 @@
         <v>2.1032150818594628</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>45220</v>
       </c>
@@ -4808,7 +4810,7 @@
         <v>2.096457048646609</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>45221</v>
       </c>
@@ -4822,7 +4824,7 @@
         <v>2.089773285202924</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>45222</v>
       </c>
@@ -4836,7 +4838,7 @@
         <v>2.0818080808685329</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>45223</v>
       </c>
@@ -4850,7 +4852,7 @@
         <v>2.0774699652275488</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>45224</v>
       </c>
@@ -4864,7 +4866,7 @@
         <v>2.0847531386146132</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>45225</v>
       </c>
@@ -4878,7 +4880,7 @@
         <v>2.0810419549867638</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>45226</v>
       </c>
@@ -4892,7 +4894,7 @@
         <v>2.0787933641079972</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>45227</v>
       </c>
@@ -4906,7 +4908,7 @@
         <v>2.0798963817167291</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>45228</v>
       </c>
@@ -4920,7 +4922,7 @@
         <v>2.0809804046301461</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>45229</v>
       </c>
@@ -4934,7 +4936,7 @@
         <v>2.0879485277708878</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>45230</v>
       </c>
@@ -4948,7 +4950,7 @@
         <v>2.0878943138981958</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>45231</v>
       </c>
@@ -4962,7 +4964,7 @@
         <v>1.8087105157072161</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>45232</v>
       </c>
@@ -4976,7 +4978,7 @@
         <v>1.8390807718384621</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>45233</v>
       </c>
@@ -4990,7 +4992,7 @@
         <v>1.8867686875171401</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>45234</v>
       </c>
@@ -5004,7 +5006,7 @@
         <v>1.8595980274018249</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>45235</v>
       </c>
@@ -5018,7 +5020,7 @@
         <v>1.8465836362647561</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>45236</v>
       </c>
@@ -5032,7 +5034,7 @@
         <v>1.8929372514099909</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>45237</v>
       </c>
@@ -5046,7 +5048,7 @@
         <v>1.8875710158452781</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>45238</v>
       </c>
@@ -5060,7 +5062,7 @@
         <v>1.8436293859722599</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>45239</v>
       </c>
@@ -5074,7 +5076,7 @@
         <v>1.806491404428074</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>45240</v>
       </c>
@@ -5091,7 +5093,7 @@
         <v>1.806491404428074</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>45241</v>
       </c>
@@ -5105,7 +5107,7 @@
         <v>1.7389068336484801</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>45242</v>
       </c>
@@ -5119,7 +5121,7 @@
         <v>1.708653473245173</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>45243</v>
       </c>
@@ -5133,7 +5135,7 @@
         <v>1.6857051684586091</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>45244</v>
       </c>
@@ -5147,7 +5149,7 @@
         <v>1.6734325705241899</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>45245</v>
       </c>
@@ -5161,7 +5163,7 @@
         <v>1.6633489375186961</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>45246</v>
       </c>
@@ -5175,7 +5177,7 @@
         <v>1.6661838382806871</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>45247</v>
       </c>
@@ -5189,7 +5191,7 @@
         <v>1.6687729442704571</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>45248</v>
       </c>
@@ -5203,7 +5205,7 @@
         <v>1.653831787918004</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>45249</v>
       </c>
@@ -5217,7 +5219,7 @@
         <v>1.640804472586352</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>45250</v>
       </c>
@@ -5231,7 +5233,7 @@
         <v>1.638801245902918</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>45251</v>
       </c>
@@ -5245,7 +5247,7 @@
         <v>1.6462957516921579</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>45252</v>
       </c>
@@ -5259,7 +5261,7 @@
         <v>1.650889245909454</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>45253</v>
       </c>
@@ -5273,7 +5275,7 @@
         <v>1.651075466451402</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>45254</v>
       </c>
@@ -5287,7 +5289,7 @@
         <v>1.648129370663195</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>45255</v>
       </c>
@@ -5301,7 +5303,7 @@
         <v>1.644521859968022</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>45256</v>
       </c>
@@ -5315,7 +5317,7 @@
         <v>1.6413802393321459</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>45257</v>
       </c>
@@ -5329,7 +5331,7 @@
         <v>1.647330582355379</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>45258</v>
       </c>
@@ -5343,7 +5345,7 @@
         <v>1.660035709386865</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>45259</v>
       </c>
@@ -5357,7 +5359,7 @@
         <v>1.6794394632624241</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>45260</v>
       </c>
@@ -5371,7 +5373,7 @@
         <v>1.7019529394778909</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>45261</v>
       </c>
@@ -5385,7 +5387,7 @@
         <v>1.9946945577302639</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>45262</v>
       </c>
@@ -5399,7 +5401,7 @@
         <v>1.881144387179833</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>45263</v>
       </c>
@@ -5413,7 +5415,7 @@
         <v>1.8427927361578871</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>45264</v>
       </c>
@@ -5427,7 +5429,7 @@
         <v>1.8248940187015481</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>45265</v>
       </c>
@@ -5441,7 +5443,7 @@
         <v>1.8157747451538071</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>45266</v>
       </c>
@@ -5455,7 +5457,7 @@
         <v>1.809099837714768</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>45267</v>
       </c>
@@ -5469,7 +5471,7 @@
         <v>1.8111308951530529</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>45268</v>
       </c>
@@ -5483,7 +5485,7 @@
         <v>1.804540076746697</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>45269</v>
       </c>
@@ -5497,7 +5499,7 @@
         <v>1.7985582726260629</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>45270</v>
       </c>
@@ -5511,7 +5513,7 @@
         <v>1.7963183463366561</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>45271</v>
       </c>
@@ -5525,7 +5527,7 @@
         <v>1.7827854909834859</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>45272</v>
       </c>
@@ -5539,7 +5541,7 @@
         <v>1.7708728159248339</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>45273</v>
       </c>
@@ -5553,7 +5555,7 @@
         <v>1.7650983348779701</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>45274</v>
       </c>
@@ -5567,7 +5569,7 @@
         <v>1.7739907454665509</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>45275</v>
       </c>
@@ -5581,7 +5583,7 @@
         <v>1.7889546979003199</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>45276</v>
       </c>
@@ -5595,7 +5597,7 @@
         <v>1.8000489894240721</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>45277</v>
       </c>
@@ -5609,7 +5611,7 @@
         <v>1.8099414914651051</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>45278</v>
       </c>
@@ -5623,7 +5625,7 @@
         <v>1.818941329062667</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>45279</v>
       </c>
@@ -5637,7 +5639,7 @@
         <v>1.8348704684281409</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>45280</v>
       </c>
@@ -5651,7 +5653,7 @@
         <v>1.837758700337017</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>45281</v>
       </c>
@@ -5665,7 +5667,7 @@
         <v>1.8290997822223849</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>45282</v>
       </c>
@@ -5679,7 +5681,7 @@
         <v>1.826761305766873</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>45283</v>
       </c>
@@ -5693,7 +5695,7 @@
         <v>1.8258930702745919</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>45284</v>
       </c>
@@ -5707,7 +5709,7 @@
         <v>1.824919750390211</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>45285</v>
       </c>
@@ -5724,7 +5726,7 @@
         <v>1.824919750390211</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>45286</v>
       </c>
@@ -5738,7 +5740,7 @@
         <v>1.817675965922064</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>45287</v>
       </c>
@@ -5752,7 +5754,7 @@
         <v>1.8158242396445201</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>45288</v>
       </c>
@@ -5766,7 +5768,7 @@
         <v>1.8083051547101801</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>45289</v>
       </c>
@@ -5780,7 +5782,7 @@
         <v>1.819289104696449</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>45290</v>
       </c>
@@ -5794,7 +5796,7 @@
         <v>1.8291563306908569</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>45291</v>
       </c>
@@ -5808,7 +5810,7 @@
         <v>1.83801490275713</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>45292</v>
       </c>
@@ -5822,7 +5824,7 @@
         <v>2.1625216494040971</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>45293</v>
       </c>
@@ -5836,7 +5838,7 @@
         <v>2.1020175605364568</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>45294</v>
       </c>
@@ -5850,7 +5852,7 @@
         <v>2.0488564887984082</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>45295</v>
       </c>
@@ -5864,7 +5866,7 @@
         <v>1.9758877444990359</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>45296</v>
       </c>
@@ -5878,7 +5880,7 @@
         <v>2.060104736243543</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>45297</v>
       </c>
@@ -5892,7 +5894,7 @@
         <v>2.1153218031141172</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>45298</v>
       </c>
@@ -5906,7 +5908,7 @@
         <v>2.153967484342445</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>45299</v>
       </c>
@@ -5920,7 +5922,7 @@
         <v>2.172176766664784</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>45300</v>
       </c>
@@ -5934,7 +5936,7 @@
         <v>2.136365205025994</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>45301</v>
       </c>
@@ -5948,7 +5950,7 @@
         <v>2.1088572183459902</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>45302</v>
       </c>
@@ -5962,7 +5964,7 @@
         <v>2.1030194402198759</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>45303</v>
       </c>
@@ -5976,7 +5978,7 @@
         <v>2.0556025217850591</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>45304</v>
       </c>
@@ -5990,7 +5992,7 @@
         <v>2.015939650139646</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>45305</v>
       </c>
@@ -6004,7 +6006,7 @@
         <v>1.9823692438287659</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>45306</v>
       </c>
@@ -6021,7 +6023,7 @@
         <v>1.9823692438287659</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>45307</v>
       </c>
@@ -6035,7 +6037,7 @@
         <v>2.0078270314997639</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>45308</v>
       </c>
@@ -6049,7 +6051,7 @@
         <v>2.017819260488062</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>45309</v>
       </c>
@@ -6063,7 +6065,7 @@
         <v>2.0347035244773508</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>45310</v>
       </c>
@@ -6077,7 +6079,7 @@
         <v>2.0589450409720569</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>45311</v>
       </c>
@@ -6091,7 +6093,7 @@
         <v>2.0814961322251779</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>45312</v>
       </c>
@@ -6105,7 +6107,7 @@
         <v>2.10259828755694</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>45313</v>
       </c>
@@ -6122,7 +6124,7 @@
         <v>2.10259828755694</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>45314</v>
       </c>
@@ -6136,7 +6138,7 @@
         <v>2.1259220635520881</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>45315</v>
       </c>
@@ -6150,7 +6152,7 @@
         <v>2.1273208912566348</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>45316</v>
       </c>
@@ -6164,7 +6166,7 @@
         <v>2.123823498863973</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>45317</v>
       </c>
@@ -6178,7 +6180,7 @@
         <v>2.1492994025489862</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>45318</v>
       </c>
@@ -6192,7 +6194,7 @@
         <v>2.1559672866872051</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>45319</v>
       </c>
@@ -6206,7 +6208,7 @@
         <v>2.1623178027342398</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>45320</v>
       </c>
@@ -6220,7 +6222,7 @@
         <v>2.178829330329485</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>45321</v>
       </c>
@@ -6234,7 +6236,7 @@
         <v>2.179663765375087</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>45322</v>
       </c>
@@ -6248,7 +6250,7 @@
         <v>2.1871548037688862</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>45323</v>
       </c>
@@ -6262,7 +6264,7 @@
         <v>2.6006552966648799</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>45324</v>
       </c>
@@ -6276,7 +6278,7 @@
         <v>2.499672815294653</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>45325</v>
       </c>
@@ -6290,7 +6292,7 @@
         <v>2.7007727751792809</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>45326</v>
       </c>
@@ -6304,7 +6306,7 @@
         <v>2.6371394044151608</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>45327</v>
       </c>
@@ -6318,7 +6320,7 @@
         <v>2.592782674049555</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>45328</v>
       </c>
@@ -6332,7 +6334,7 @@
         <v>2.5269600004183981</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>45329</v>
       </c>
@@ -6346,7 +6348,7 @@
         <v>2.4723180805114811</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>45330</v>
       </c>
@@ -6360,7 +6362,7 @@
         <v>2.48608037187861</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>45331</v>
       </c>
@@ -6374,7 +6376,7 @@
         <v>2.5066781071309929</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>45332</v>
       </c>
@@ -6388,7 +6390,7 @@
         <v>2.5228141503425068</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>45333</v>
       </c>
@@ -6402,7 +6404,7 @@
         <v>2.535708190527143</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>45334</v>
       </c>
@@ -6416,7 +6418,7 @@
         <v>2.5461707284416182</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>45335</v>
       </c>
@@ -6430,7 +6432,7 @@
         <v>2.5524932975153458</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>45336</v>
       </c>
@@ -6444,7 +6446,7 @@
         <v>2.561077103588171</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>45337</v>
       </c>
@@ -6458,7 +6460,7 @@
         <v>2.5490895272887921</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>45338</v>
       </c>
@@ -6472,7 +6474,7 @@
         <v>2.5362423456050651</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>45339</v>
       </c>
@@ -6486,7 +6488,7 @@
         <v>2.5765597579892869</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>45340</v>
       </c>
@@ -6500,7 +6502,7 @@
         <v>2.6118165559216071</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>45341</v>
       </c>
@@ -6514,7 +6516,7 @@
         <v>2.6151210533906548</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>45342</v>
       </c>
@@ -6528,7 +6530,7 @@
         <v>2.635259816261625</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>45343</v>
       </c>
@@ -6542,7 +6544,7 @@
         <v>2.649952149639065</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>45344</v>
       </c>
@@ -6556,7 +6558,7 @@
         <v>2.6468451147085981</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>45345</v>
       </c>
@@ -6570,7 +6572,7 @@
         <v>2.6513510904643192</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>45346</v>
       </c>
@@ -6584,7 +6586,7 @@
         <v>2.6775189594913318</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>45347</v>
       </c>
@@ -6598,7 +6600,7 @@
         <v>2.7013298719873782</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>45348</v>
       </c>
@@ -6612,7 +6614,7 @@
         <v>2.7097012340144411</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>45349</v>
       </c>
@@ -6626,7 +6628,7 @@
         <v>2.6964839911065961</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>45350</v>
       </c>
@@ -6640,7 +6642,7 @@
         <v>2.6809847829492131</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>45351</v>
       </c>
@@ -6654,7 +6656,7 @@
         <v>2.66849996607134</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>45352</v>
       </c>
@@ -6668,7 +6670,7 @@
         <v>2.4819879279007102</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>45353</v>
       </c>
@@ -6682,7 +6684,7 @@
         <v>2.557598118789651</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>45354</v>
       </c>
@@ -6696,7 +6698,7 @@
         <v>2.58614072271277</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>45355</v>
       </c>
@@ -6710,7 +6712,7 @@
         <v>2.589708208706766</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>45356</v>
       </c>
@@ -6724,7 +6726,7 @@
         <v>2.6270360576944198</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>45357</v>
       </c>
@@ -6738,7 +6740,7 @@
         <v>2.6287657731899472</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>45358</v>
       </c>
@@ -6752,7 +6754,7 @@
         <v>2.6368348161923629</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>45359</v>
       </c>
@@ -6766,7 +6768,7 @@
         <v>2.6841156635697518</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>45360</v>
       </c>
@@ -6780,7 +6782,7 @@
         <v>2.6954412113368189</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>45361</v>
       </c>
@@ -6794,7 +6796,7 @@
         <v>2.7048883348697901</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>45362</v>
       </c>
@@ -6808,7 +6810,7 @@
         <v>2.6950132470339421</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>45363</v>
       </c>
@@ -6822,7 +6824,7 @@
         <v>2.7076820090480891</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>45364</v>
       </c>
@@ -6836,7 +6838,7 @@
         <v>2.7208062337384251</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>45365</v>
       </c>
@@ -6850,7 +6852,7 @@
         <v>2.7314591712103611</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>45366</v>
       </c>
@@ -6864,7 +6866,7 @@
         <v>2.7325868085088709</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>45367</v>
       </c>
@@ -6878,7 +6880,7 @@
         <v>2.730344776354007</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>45368</v>
       </c>
@@ -6892,7 +6894,7 @@
         <v>2.7277061418482011</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>45369</v>
       </c>
@@ -6906,7 +6908,7 @@
         <v>2.728829561860481</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>45370</v>
       </c>
@@ -6920,7 +6922,7 @@
         <v>2.7372969739832298</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>45371</v>
       </c>
@@ -6934,7 +6936,7 @@
         <v>2.759203791136688</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>45372</v>
       </c>
@@ -6948,7 +6950,7 @@
         <v>2.772705851431343</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <v>45373</v>
       </c>
@@ -6962,7 +6964,7 @@
         <v>2.78547637078738</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>45374</v>
       </c>
@@ -6976,7 +6978,7 @@
         <v>2.7975795956610772</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>45375</v>
       </c>
@@ -6990,7 +6992,7 @@
         <v>2.8090989378627271</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <v>45376</v>
       </c>
@@ -7004,7 +7006,7 @@
         <v>2.824421056150257</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <v>45377</v>
       </c>
@@ -7018,7 +7020,7 @@
         <v>2.829825789282304</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>45378</v>
       </c>
@@ -7032,7 +7034,7 @@
         <v>2.8451555881603858</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <v>45379</v>
       </c>
@@ -7046,7 +7048,7 @@
         <v>2.8636918511054139</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>45380</v>
       </c>
@@ -7060,7 +7062,7 @@
         <v>2.8809679648148139</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <v>45381</v>
       </c>
@@ -7077,7 +7079,7 @@
         <v>2.8809679648148139</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>45382</v>
       </c>
@@ -7091,7 +7093,7 @@
         <v>2.9123097090724488</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <v>45383</v>
       </c>
@@ -7105,7 +7107,7 @@
         <v>4.1016620707511704</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>45384</v>
       </c>
@@ -7119,7 +7121,7 @@
         <v>4.196651561403316</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <v>45385</v>
       </c>
@@ -7133,7 +7135,7 @@
         <v>3.8818917881884158</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>45386</v>
       </c>
@@ -7147,7 +7149,7 @@
         <v>3.705356645838541</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
         <v>45387</v>
       </c>
@@ -7161,7 +7163,7 @@
         <v>3.2749006053666752</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <v>45388</v>
       </c>
@@ -7175,7 +7177,7 @@
         <v>2.805869165413275</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <v>45389</v>
       </c>
@@ -7189,7 +7191,7 @@
         <v>2.4715209858002161</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>45390</v>
       </c>
@@ -7203,7 +7205,7 @@
         <v>2.6075194485107431</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <v>45391</v>
       </c>
@@ -7217,7 +7219,7 @@
         <v>2.7017161642349601</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>45392</v>
       </c>
@@ -7231,7 +7233,7 @@
         <v>2.8094839415765369</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>45393</v>
       </c>
@@ -7245,7 +7247,7 @@
         <v>2.8811490469595729</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>45394</v>
       </c>
@@ -7259,7 +7261,7 @@
         <v>2.9545120399931371</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>45395</v>
       </c>
@@ -7273,7 +7275,7 @@
         <v>3.0111304587723491</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>45396</v>
       </c>
@@ -7287,7 +7289,7 @@
         <v>3.0615402031723091</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <v>45397</v>
       </c>
@@ -7301,7 +7303,7 @@
         <v>3.112556650987313</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <v>45398</v>
       </c>
@@ -7315,7 +7317,7 @@
         <v>3.1506585302193391</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <v>45399</v>
       </c>
@@ -7329,7 +7331,7 @@
         <v>3.1780326177559459</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <v>45400</v>
       </c>
@@ -7343,7 +7345,7 @@
         <v>3.2122830291612852</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <v>45401</v>
       </c>
@@ -7357,7 +7359,7 @@
         <v>3.2496949000667121</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <v>45402</v>
       </c>
@@ -7371,7 +7373,7 @@
         <v>3.2639653284384331</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <v>45403</v>
       </c>
@@ -7385,7 +7387,7 @@
         <v>3.2762009264923182</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <v>45404</v>
       </c>
@@ -7399,7 +7401,7 @@
         <v>3.2867165729839538</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <v>45405</v>
       </c>
@@ -7413,7 +7415,7 @@
         <v>3.2906411138405138</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
         <v>45406</v>
       </c>
@@ -7427,7 +7429,7 @@
         <v>3.3034361190689729</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <v>45407</v>
       </c>
@@ -7441,7 +7443,7 @@
         <v>3.2762356873933851</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <v>45408</v>
       </c>
@@ -7455,7 +7457,7 @@
         <v>3.278231142407722</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <v>45409</v>
       </c>
@@ -7469,7 +7471,7 @@
         <v>3.2798773321257868</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <v>45410</v>
       </c>
@@ -7483,7 +7485,7 @@
         <v>3.2812116778293232</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <v>45411</v>
       </c>
@@ -7497,7 +7499,7 @@
         <v>3.259454930946962</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <v>45412</v>
       </c>
@@ -7511,7 +7513,7 @@
         <v>3.2431072636908862</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <v>45413</v>
       </c>
@@ -7525,7 +7527,7 @@
         <v>2.7918845673118611</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>45414</v>
       </c>
@@ -7539,7 +7541,7 @@
         <v>2.7825969280017251</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <v>45415</v>
       </c>
@@ -7553,7 +7555,7 @@
         <v>2.7023985426891879</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <v>45416</v>
       </c>
@@ -7567,7 +7569,7 @@
         <v>2.6663351279315028</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>45417</v>
       </c>
@@ -7581,7 +7583,7 @@
         <v>2.6479257013957569</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <v>45418</v>
       </c>
@@ -7595,7 +7597,7 @@
         <v>2.6543167050214511</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <v>45419</v>
       </c>
@@ -7609,7 +7611,7 @@
         <v>2.6293181645207642</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <v>45420</v>
       </c>
@@ -7623,7 +7625,7 @@
         <v>2.6593397679186852</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <v>45421</v>
       </c>
@@ -7637,7 +7639,7 @@
         <v>2.6710945508009529</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
         <v>45422</v>
       </c>
@@ -7651,7 +7653,7 @@
         <v>2.665402249185421</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
         <v>45423</v>
       </c>
@@ -7665,7 +7667,7 @@
         <v>2.6629841691159268</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <v>45424</v>
       </c>
@@ -7679,7 +7681,7 @@
         <v>2.6620653733648609</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A500" s="1">
         <v>45425</v>
       </c>
@@ -7693,7 +7695,7 @@
         <v>2.6790785036500062</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
         <v>45426</v>
       </c>
@@ -7707,7 +7709,7 @@
         <v>2.7036034272845582</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A502" s="1">
         <v>45427</v>
       </c>
@@ -7721,7 +7723,7 @@
         <v>2.7342627560717192</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A503" s="1">
         <v>45428</v>
       </c>
@@ -7735,7 +7737,7 @@
         <v>2.7651562021011422</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A504" s="1">
         <v>45429</v>
       </c>
@@ -7749,7 +7751,7 @@
         <v>2.8012954494730282</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A505" s="1">
         <v>45430</v>
       </c>
@@ -7763,7 +7765,7 @@
         <v>2.8425820182591082</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A506" s="1">
         <v>45431</v>
       </c>
@@ -7780,7 +7782,7 @@
         <v>2.8425820182591082</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A507" s="1">
         <v>45432</v>
       </c>
@@ -7794,7 +7796,7 @@
         <v>2.939570380325248</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A508" s="1">
         <v>45433</v>
       </c>
@@ -7808,7 +7810,7 @@
         <v>2.9885432549732078</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A509" s="1">
         <v>45434</v>
       </c>
@@ -7822,7 +7824,7 @@
         <v>3.030948267308105</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A510" s="1">
         <v>45435</v>
       </c>
@@ -7836,7 +7838,7 @@
         <v>3.065521075135087</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A511" s="1">
         <v>45436</v>
       </c>
@@ -7850,7 +7852,7 @@
         <v>3.1114673705013778</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A512" s="1">
         <v>45437</v>
       </c>
@@ -7864,7 +7866,7 @@
         <v>3.1596403777778059</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A513" s="1">
         <v>45438</v>
       </c>
@@ -7878,7 +7880,7 @@
         <v>3.2040982703341601</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A514" s="1">
         <v>45439</v>
       </c>
@@ -7892,7 +7894,7 @@
         <v>3.2502039186753491</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A515" s="1">
         <v>45440</v>
       </c>
@@ -7906,7 +7908,7 @@
         <v>3.3020669615566951</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A516" s="1">
         <v>45441</v>
       </c>
@@ -7920,7 +7922,7 @@
         <v>3.3531926861410741</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A517" s="1">
         <v>45442</v>
       </c>
@@ -7934,7 +7936,7 @@
         <v>3.3996361900415679</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A518" s="1">
         <v>45443</v>
       </c>
@@ -7948,7 +7950,7 @@
         <v>3.4400263176578729</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A519" s="1">
         <v>45444</v>
       </c>
@@ -7962,7 +7964,7 @@
         <v>5.0334038012431419</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A520" s="1">
         <v>45445</v>
       </c>
@@ -7976,7 +7978,7 @@
         <v>5.0362213606917674</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A521" s="1">
         <v>45446</v>
       </c>
@@ -7990,7 +7992,7 @@
         <v>5.0651857408622334</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A522" s="1">
         <v>45447</v>
       </c>
@@ -8004,7 +8006,7 @@
         <v>5.0683119593678478</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A523" s="1">
         <v>45448</v>
       </c>
@@ -8018,7 +8020,7 @@
         <v>5.1928433867632124</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A524" s="1">
         <v>45449</v>
       </c>
@@ -8032,7 +8034,7 @@
         <v>5.2939858111912486</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A525" s="1">
         <v>45450</v>
       </c>
@@ -8046,7 +8048,7 @@
         <v>5.3003193139668738</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A526" s="1">
         <v>45451</v>
       </c>
@@ -8060,7 +8062,7 @@
         <v>5.3039260844641634</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A527" s="1">
         <v>45452</v>
       </c>
@@ -8074,7 +8076,7 @@
         <v>5.306466559094785</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A528" s="1">
         <v>45453</v>
       </c>
@@ -8088,7 +8090,7 @@
         <v>5.2819540533645126</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A529" s="1">
         <v>45454</v>
       </c>
@@ -8102,7 +8104,7 @@
         <v>5.2350800140082674</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A530" s="1">
         <v>45455</v>
       </c>
@@ -8116,7 +8118,7 @@
         <v>5.1759056865786626</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A531" s="1">
         <v>45456</v>
       </c>
@@ -8130,7 +8132,7 @@
         <v>5.1030734905999759</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A532" s="1">
         <v>45457</v>
       </c>
@@ -8144,7 +8146,7 @@
         <v>5.0268851315390597</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A533" s="1">
         <v>45458</v>
       </c>
@@ -8158,7 +8160,7 @@
         <v>4.9469598254246803</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A534" s="1">
         <v>45459</v>
       </c>
@@ -8172,7 +8174,7 @@
         <v>4.8770168358804673</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A535" s="1">
         <v>45460</v>
       </c>
@@ -8186,7 +8188,7 @@
         <v>4.8082863218935623</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A536" s="1">
         <v>45461</v>
       </c>
@@ -8200,7 +8202,7 @@
         <v>4.7529247087809328</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A537" s="1">
         <v>45462</v>
       </c>
@@ -8214,7 +8216,7 @@
         <v>4.6688591729557514</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A538" s="1">
         <v>45463</v>
       </c>
@@ -8228,7 +8230,7 @@
         <v>4.6049762608191589</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A539" s="1">
         <v>45464</v>
       </c>
@@ -8242,7 +8244,7 @@
         <v>4.5456726051479421</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A540" s="1">
         <v>45465</v>
       </c>
@@ -8256,7 +8258,7 @@
         <v>4.4913695525259127</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A541" s="1">
         <v>45466</v>
       </c>
@@ -8270,7 +8272,7 @@
         <v>4.4415092165563541</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A542" s="1">
         <v>45467</v>
       </c>
@@ -8284,7 +8286,7 @@
         <v>4.370852414479625</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A543" s="1">
         <v>45468</v>
       </c>
@@ -8298,7 +8300,7 @@
         <v>4.3037796207304391</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A544" s="1">
         <v>45469</v>
       </c>
@@ -8312,7 +8314,7 @@
         <v>4.2424652619003629</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A545" s="1">
         <v>45470</v>
       </c>
@@ -8326,7 +8328,7 @@
         <v>4.1769030549255648</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A546" s="1">
         <v>45471</v>
       </c>
@@ -8340,7 +8342,7 @@
         <v>4.1236252301527028</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A547" s="1">
         <v>45472</v>
       </c>
@@ -8354,7 +8356,7 @@
         <v>4.0742981235517286</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A548" s="1">
         <v>45473</v>
       </c>
@@ -8368,7 +8370,7 @@
         <v>4.0283096211031459</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A549" s="1">
         <v>45474</v>
       </c>
@@ -8382,7 +8384,7 @@
         <v>2.337700713455841</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A550" s="1">
         <v>45475</v>
       </c>
@@ -8396,7 +8398,7 @@
         <v>2.5143682301376651</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A551" s="1">
         <v>45476</v>
       </c>
@@ -8410,7 +8412,7 @@
         <v>2.5628178768935639</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A552" s="1">
         <v>45477</v>
       </c>
@@ -8424,7 +8426,7 @@
         <v>2.5599487585031979</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A553" s="1">
         <v>45478</v>
       </c>
@@ -8438,7 +8440,7 @@
         <v>2.707005246257753</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A554" s="1">
         <v>45479</v>
       </c>
@@ -8452,7 +8454,7 @@
         <v>2.767489311575559</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A555" s="1">
         <v>45480</v>
       </c>
@@ -8466,7 +8468,7 @@
         <v>2.8095935580874278</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A556" s="1">
         <v>45481</v>
       </c>
@@ -8480,7 +8482,7 @@
         <v>2.8421160203377962</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A557" s="1">
         <v>45482</v>
       </c>
@@ -8494,7 +8496,7 @@
         <v>3.0130173544285159</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A558" s="1">
         <v>45483</v>
       </c>
@@ -8508,7 +8510,7 @@
         <v>3.1593296555581172</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A559" s="1">
         <v>45484</v>
       </c>
@@ -8525,7 +8527,7 @@
         <v>3.1593296555581172</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A560" s="1">
         <v>45485</v>
       </c>
@@ -8542,7 +8544,7 @@
         <v>3.1593296555581172</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A561" s="1">
         <v>45486</v>
       </c>
@@ -8559,7 +8561,7 @@
         <v>3.1593296555581172</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A562" s="1">
         <v>45487</v>
       </c>
@@ -8573,7 +8575,7 @@
         <v>3.6496170936658179</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A563" s="1">
         <v>45488</v>
       </c>
@@ -8587,7 +8589,7 @@
         <v>3.8446926550721359</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A564" s="1">
         <v>45489</v>
       </c>
@@ -8601,7 +8603,7 @@
         <v>3.9222520348331522</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A565" s="1">
         <v>45490</v>
       </c>
@@ -8615,7 +8617,7 @@
         <v>3.9860472553563011</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A566" s="1">
         <v>45491</v>
       </c>
@@ -8629,7 +8631,7 @@
         <v>4.0252147342694817</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A567" s="1">
         <v>45492</v>
       </c>
@@ -8643,7 +8645,7 @@
         <v>4.0190341240618164</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A568" s="1">
         <v>45493</v>
       </c>
@@ -8660,7 +8662,7 @@
         <v>4.0190341240618164</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A569" s="1">
         <v>45494</v>
       </c>
@@ -8674,7 +8676,7 @@
         <v>4.0219322768193697</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A570" s="1">
         <v>45495</v>
       </c>
@@ -8688,7 +8690,7 @@
         <v>3.986731187902901</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A571" s="1">
         <v>45496</v>
       </c>
@@ -8702,7 +8704,7 @@
         <v>3.9633656026876549</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A572" s="1">
         <v>45497</v>
       </c>
@@ -8716,7 +8718,7 @@
         <v>3.9603567509686961</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A573" s="1">
         <v>45498</v>
       </c>
@@ -8730,7 +8732,7 @@
         <v>3.9508986723298078</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A574" s="1">
         <v>45499</v>
       </c>
@@ -8744,7 +8746,7 @@
         <v>3.9444515811330119</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A575" s="1">
         <v>45500</v>
       </c>
@@ -8758,7 +8760,7 @@
         <v>3.9450183427643259</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A576" s="1">
         <v>45501</v>
       </c>
@@ -8772,7 +8774,7 @@
         <v>3.9464806141589621</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A577" s="1">
         <v>45502</v>
       </c>
@@ -8786,7 +8788,7 @@
         <v>3.9517785551578561</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A578" s="1">
         <v>45503</v>
       </c>
@@ -8800,7 +8802,7 @@
         <v>3.9513164726076471</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A579" s="1">
         <v>45504</v>
       </c>
@@ -8814,7 +8816,7 @@
         <v>3.9607714566589731</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A580" s="1">
         <v>45505</v>
       </c>
@@ -8828,7 +8830,7 @@
         <v>3.8005546062651678</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A581" s="1">
         <v>45506</v>
       </c>
@@ -8842,7 +8844,7 @@
         <v>3.7248659787570602</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A582" s="1">
         <v>45507</v>
       </c>
@@ -8856,7 +8858,7 @@
         <v>3.599999835744466</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A583" s="1">
         <v>45508</v>
       </c>
@@ -8873,7 +8875,7 @@
         <v>3.599999835744466</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A584" s="1">
         <v>45509</v>
       </c>
@@ -8887,7 +8889,7 @@
         <v>3.662632589136817</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A585" s="1">
         <v>45510</v>
       </c>
@@ -8901,7 +8903,7 @@
         <v>3.7637960011045051</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A586" s="1">
         <v>45511</v>
       </c>
@@ -8915,7 +8917,7 @@
         <v>4.1008233576785278</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A587" s="1">
         <v>45512</v>
       </c>
@@ -8929,7 +8931,7 @@
         <v>4.3324727210469414</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A588" s="1">
         <v>45513</v>
       </c>
@@ -8943,7 +8945,7 @@
         <v>4.5051589939044394</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A589" s="1">
         <v>45514</v>
       </c>
@@ -8957,7 +8959,7 @@
         <v>4.6700621895255718</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A590" s="1">
         <v>45515</v>
       </c>
@@ -8971,7 +8973,7 @@
         <v>4.8067494673610511</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A591" s="1">
         <v>45516</v>
       </c>
@@ -8985,7 +8987,7 @@
         <v>4.8874316331303129</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A592" s="1">
         <v>45517</v>
       </c>
@@ -8999,7 +9001,7 @@
         <v>4.9117489520152651</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A593" s="1">
         <v>45518</v>
       </c>
@@ -9013,7 +9015,7 @@
         <v>4.9377029997400257</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A594" s="1">
         <v>45519</v>
       </c>
@@ -9027,7 +9029,7 @@
         <v>4.9348095611299252</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A595" s="1">
         <v>45520</v>
       </c>
@@ -9041,7 +9043,7 @@
         <v>4.9505548987711183</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A596" s="1">
         <v>45521</v>
       </c>
@@ -9055,7 +9057,7 @@
         <v>4.9816992132068458</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A597" s="1">
         <v>45522</v>
       </c>
@@ -9069,7 +9071,7 @@
         <v>5.0007666062777103</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A598" s="1">
         <v>45523</v>
       </c>
@@ -9083,7 +9085,7 @@
         <v>5.034438875883235</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A599" s="1">
         <v>45524</v>
       </c>
@@ -9097,7 +9099,7 @@
         <v>5.0863018784155916</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A600" s="1">
         <v>45525</v>
       </c>
@@ -9111,7 +9113,7 @@
         <v>5.1079855779945991</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A601" s="1">
         <v>45526</v>
       </c>
@@ -9125,7 +9127,7 @@
         <v>5.128859804682107</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A602" s="1">
         <v>45527</v>
       </c>
@@ -9139,7 +9141,7 @@
         <v>5.1516259916721214</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A603" s="1">
         <v>45528</v>
       </c>
@@ -9153,7 +9155,7 @@
         <v>5.1833628434977594</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A604" s="1">
         <v>45529</v>
       </c>
@@ -9167,7 +9169,7 @@
         <v>5.2123230942422811</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A605" s="1">
         <v>45530</v>
       </c>
@@ -9181,7 +9183,7 @@
         <v>5.2334434849664699</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A606" s="1">
         <v>45531</v>
       </c>
@@ -9195,7 +9197,7 @@
         <v>5.2413282133676411</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A607" s="1">
         <v>45532</v>
       </c>
@@ -9209,7 +9211,7 @@
         <v>5.232385784475432</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A608" s="1">
         <v>45533</v>
       </c>
@@ -9223,7 +9225,7 @@
         <v>5.2150892760126251</v>
       </c>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A609" s="1">
         <v>45534</v>
       </c>
@@ -9237,7 +9239,7 @@
         <v>5.1943909897906071</v>
       </c>
     </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A610" s="1">
         <v>45535</v>
       </c>
@@ -9251,7 +9253,7 @@
         <v>5.1846306511173479</v>
       </c>
     </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A611" s="1">
         <v>45536</v>
       </c>
@@ -9265,7 +9267,7 @@
         <v>5.2956891142682299</v>
       </c>
     </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A612" s="1">
         <v>45537</v>
       </c>
@@ -9279,7 +9281,7 @@
         <v>5.3127602519495749</v>
       </c>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A613" s="1">
         <v>45538</v>
       </c>
@@ -9293,7 +9295,7 @@
         <v>5.2597361947283154</v>
       </c>
     </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A614" s="1">
         <v>45539</v>
       </c>
@@ -9307,7 +9309,7 @@
         <v>5.3086284974583551</v>
       </c>
     </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A615" s="1">
         <v>45540</v>
       </c>
@@ -9321,7 +9323,7 @@
         <v>5.3747548232753859</v>
       </c>
     </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A616" s="1">
         <v>45541</v>
       </c>
@@ -9335,7 +9337,7 @@
         <v>5.4555606001101324</v>
       </c>
     </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A617" s="1">
         <v>45542</v>
       </c>
@@ -9349,7 +9351,7 @@
         <v>5.5593658297346646</v>
       </c>
     </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A618" s="1">
         <v>45543</v>
       </c>
@@ -9363,7 +9365,7 @@
         <v>5.6354989323393498</v>
       </c>
     </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A619" s="1">
         <v>45544</v>
       </c>
@@ -9377,7 +9379,7 @@
         <v>5.6969072846562234</v>
       </c>
     </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A620" s="1">
         <v>45545</v>
       </c>
@@ -9391,7 +9393,7 @@
         <v>5.7512939647163828</v>
       </c>
     </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A621" s="1">
         <v>45546</v>
       </c>
@@ -9405,7 +9407,7 @@
         <v>5.8016373476442009</v>
       </c>
     </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A622" s="1">
         <v>45547</v>
       </c>
@@ -9419,7 +9421,7 @@
         <v>5.8587397771440637</v>
       </c>
     </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A623" s="1">
         <v>45548</v>
       </c>
@@ -9433,7 +9435,7 @@
         <v>5.8922628951804858</v>
       </c>
     </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A624" s="1">
         <v>45549</v>
       </c>
@@ -9447,7 +9449,7 @@
         <v>5.9215651491310881</v>
       </c>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A625" s="1">
         <v>45550</v>
       </c>
@@ -9461,7 +9463,7 @@
         <v>5.9460322058939328</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A626" s="1">
         <v>45551</v>
       </c>
@@ -9475,7 +9477,7 @@
         <v>5.9797467379835538</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A627" s="1">
         <v>45552</v>
       </c>
@@ -9489,7 +9491,7 @@
         <v>6.0045330248408604</v>
       </c>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A628" s="1">
         <v>45553</v>
       </c>
@@ -9503,7 +9505,7 @@
         <v>6.034356017619336</v>
       </c>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A629" s="1">
         <v>45554</v>
       </c>
@@ -9517,7 +9519,7 @@
         <v>6.0539237137470652</v>
       </c>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A630" s="1">
         <v>45555</v>
       </c>
@@ -9531,7 +9533,7 @@
         <v>6.0769114390183336</v>
       </c>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A631" s="1">
         <v>45556</v>
       </c>
@@ -9545,7 +9547,7 @@
         <v>6.0971385704261074</v>
       </c>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A632" s="1">
         <v>45557</v>
       </c>
@@ -9559,7 +9561,7 @@
         <v>6.1146981343075248</v>
       </c>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A633" s="1">
         <v>45558</v>
       </c>
@@ -9573,7 +9575,7 @@
         <v>6.1289436968726152</v>
       </c>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A634" s="1">
         <v>45559</v>
       </c>
@@ -9587,7 +9589,7 @@
         <v>6.1521368863895347</v>
       </c>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A635" s="1">
         <v>45560</v>
       </c>
@@ -9601,7 +9603,7 @@
         <v>6.1734165714806908</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A636" s="1">
         <v>45561</v>
       </c>
@@ -9615,7 +9617,7 @@
         <v>6.1766160124272513</v>
       </c>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A637" s="1">
         <v>45562</v>
       </c>
@@ -9629,7 +9631,7 @@
         <v>6.1915959352390013</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A638" s="1">
         <v>45563</v>
       </c>
@@ -9643,7 +9645,7 @@
         <v>6.2047280458250862</v>
       </c>
     </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A639" s="1">
         <v>45564</v>
       </c>
@@ -9657,7 +9659,7 @@
         <v>6.2176148316823534</v>
       </c>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A640" s="1">
         <v>45565</v>
       </c>
@@ -9671,7 +9673,7 @@
         <v>6.217984749091749</v>
       </c>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A641" s="1">
         <v>45566</v>
       </c>
@@ -9685,7 +9687,7 @@
         <v>7.0851886665813382</v>
       </c>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A642" s="1">
         <v>45567</v>
       </c>
@@ -9699,7 +9701,7 @@
         <v>7.1148039432436434</v>
       </c>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A643" s="1">
         <v>45568</v>
       </c>
@@ -9713,7 +9715,7 @@
         <v>7.1843677094968044</v>
       </c>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A644" s="1">
         <v>45569</v>
       </c>
@@ -9727,7 +9729,7 @@
         <v>7.1526507472676952</v>
       </c>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A645" s="1">
         <v>45570</v>
       </c>
@@ -9741,7 +9743,7 @@
         <v>7.1343182335117774</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A646" s="1">
         <v>45571</v>
       </c>
@@ -9755,7 +9757,7 @@
         <v>7.1197243080157504</v>
       </c>
     </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A647" s="1">
         <v>45572</v>
       </c>
@@ -9769,7 +9771,7 @@
         <v>7.1474736776790424</v>
       </c>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A648" s="1">
         <v>45573</v>
       </c>
@@ -9783,7 +9785,7 @@
         <v>7.1622158322753391</v>
       </c>
     </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A649" s="1">
         <v>45574</v>
       </c>
@@ -9797,7 +9799,7 @@
         <v>7.1590189779406046</v>
       </c>
     </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A650" s="1">
         <v>45575</v>
       </c>
@@ -9811,7 +9813,7 @@
         <v>7.1839317360519628</v>
       </c>
     </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A651" s="1">
         <v>45576</v>
       </c>
@@ -9825,7 +9827,7 @@
         <v>7.2176348537782076</v>
       </c>
     </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A652" s="1">
         <v>45577</v>
       </c>
@@ -9839,7 +9841,7 @@
         <v>7.2488566032221797</v>
       </c>
     </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A653" s="1">
         <v>45578</v>
       </c>
@@ -9853,7 +9855,7 @@
         <v>7.2747285096449739</v>
       </c>
     </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A654" s="1">
         <v>45579</v>
       </c>
@@ -9867,7 +9869,7 @@
         <v>7.297178787381335</v>
       </c>
     </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A655" s="1">
         <v>45580</v>
       </c>
@@ -9881,7 +9883,7 @@
         <v>7.3149590070218222</v>
       </c>
     </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A656" s="1">
         <v>45581</v>
       </c>
@@ -9895,7 +9897,7 @@
         <v>7.3263665307196097</v>
       </c>
     </row>
-    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A657" s="1">
         <v>45582</v>
       </c>
@@ -9909,7 +9911,7 @@
         <v>7.3465575221282027</v>
       </c>
     </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A658" s="1">
         <v>45583</v>
       </c>
@@ -9923,7 +9925,7 @@
         <v>7.3550616125993873</v>
       </c>
     </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A659" s="1">
         <v>45584</v>
       </c>
@@ -9940,7 +9942,7 @@
         <v>7.3550616125993873</v>
       </c>
     </row>
-    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A660" s="1">
         <v>45585</v>
       </c>
@@ -9954,7 +9956,7 @@
         <v>7.3635440566843346</v>
       </c>
     </row>
-    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A661" s="1">
         <v>45586</v>
       </c>
@@ -9968,7 +9970,7 @@
         <v>7.3687372327000489</v>
       </c>
     </row>
-    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A662" s="1">
         <v>45587</v>
       </c>
@@ -9982,7 +9984,7 @@
         <v>7.386811505373462</v>
       </c>
     </row>
-    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A663" s="1">
         <v>45588</v>
       </c>
@@ -9996,7 +9998,7 @@
         <v>7.3990424604994711</v>
       </c>
     </row>
-    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A664" s="1">
         <v>45589</v>
       </c>
@@ -10010,7 +10012,7 @@
         <v>7.4515237609157596</v>
       </c>
     </row>
-    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A665" s="1">
         <v>45590</v>
       </c>
@@ -10024,7 +10026,7 @@
         <v>7.5028309495994359</v>
       </c>
     </row>
-    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A666" s="1">
         <v>45591</v>
       </c>
@@ -10038,7 +10040,7 @@
         <v>7.5575750070976158</v>
       </c>
     </row>
-    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A667" s="1">
         <v>45592</v>
       </c>
@@ -10052,7 +10054,7 @@
         <v>7.6076149364379324</v>
       </c>
     </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A668" s="1">
         <v>45593</v>
       </c>
@@ -10066,7 +10068,7 @@
         <v>7.6747545765917096</v>
       </c>
     </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A669" s="1">
         <v>45594</v>
       </c>
@@ -10080,7 +10082,7 @@
         <v>7.721456046124028</v>
       </c>
     </row>
-    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A670" s="1">
         <v>45595</v>
       </c>
@@ -10094,7 +10096,7 @@
         <v>7.8135007778071248</v>
       </c>
     </row>
-    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A671" s="1">
         <v>45596</v>
       </c>
@@ -10108,7 +10110,7 @@
         <v>7.8951256902816702</v>
       </c>
     </row>
-    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A672" s="1">
         <v>45597</v>
       </c>
@@ -10122,7 +10124,7 @@
         <v>10.80865325482076</v>
       </c>
     </row>
-    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A673" s="1">
         <v>45598</v>
       </c>
@@ -10136,7 +10138,7 @@
         <v>10.79747036287684</v>
       </c>
     </row>
-    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A674" s="1">
         <v>45599</v>
       </c>
@@ -10150,7 +10152,7 @@
         <v>10.786287470932921</v>
       </c>
     </row>
-    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A675" s="1">
         <v>45600</v>
       </c>
@@ -10164,7 +10166,7 @@
         <v>10.61515899720462</v>
       </c>
     </row>
-    <row r="676" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A676" s="1">
         <v>45601</v>
       </c>
@@ -10178,7 +10180,7 @@
         <v>10.64280933185565</v>
       </c>
     </row>
-    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A677" s="1">
         <v>45602</v>
       </c>
@@ -10192,7 +10194,7 @@
         <v>10.615375194060929</v>
       </c>
     </row>
-    <row r="678" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A678" s="1">
         <v>45603</v>
       </c>
@@ -10206,7 +10208,7 @@
         <v>10.47823362033968</v>
       </c>
     </row>
-    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A679" s="1">
         <v>45604</v>
       </c>
@@ -10220,7 +10222,7 @@
         <v>10.360836504695049</v>
       </c>
     </row>
-    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A680" s="1">
         <v>45605</v>
       </c>
@@ -10234,7 +10236,7 @@
         <v>10.214457737495771</v>
       </c>
     </row>
-    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A681" s="1">
         <v>45606</v>
       </c>
@@ -10248,7 +10250,7 @@
         <v>10.09728856737066</v>
       </c>
     </row>
-    <row r="682" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A682" s="1">
         <v>45607</v>
       </c>
@@ -10262,7 +10264,7 @@
         <v>10.05255747800995</v>
       </c>
     </row>
-    <row r="683" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A683" s="1">
         <v>45608</v>
       </c>
@@ -10276,7 +10278,7 @@
         <v>10.012571712288979</v>
       </c>
     </row>
-    <row r="684" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A684" s="1">
         <v>45609</v>
       </c>
@@ -10290,7 +10292,7 @@
         <v>9.9701845100805055</v>
       </c>
     </row>
-    <row r="685" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A685" s="1">
         <v>45610</v>
       </c>
@@ -10304,7 +10306,7 @@
         <v>9.9325845044421754</v>
       </c>
     </row>
-    <row r="686" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A686" s="1">
         <v>45611</v>
       </c>
@@ -10318,7 +10320,7 @@
         <v>9.8633942647445956</v>
       </c>
     </row>
-    <row r="687" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A687" s="1">
         <v>45612</v>
       </c>
@@ -10332,7 +10334,7 @@
         <v>9.7943643212530205</v>
       </c>
     </row>
-    <row r="688" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A688" s="1">
         <v>45613</v>
       </c>
@@ -10346,7 +10348,7 @@
         <v>9.7334055133578321</v>
       </c>
     </row>
-    <row r="689" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A689" s="1">
         <v>45614</v>
       </c>
@@ -10360,7 +10362,7 @@
         <v>9.6874377176073274</v>
       </c>
     </row>
-    <row r="690" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A690" s="1">
         <v>45615</v>
       </c>
@@ -10374,7 +10376,7 @@
         <v>9.6423308446595257</v>
       </c>
     </row>
-    <row r="691" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A691" s="1">
         <v>45616</v>
       </c>
@@ -10388,7 +10390,7 @@
         <v>9.5964171939739167</v>
       </c>
     </row>
-    <row r="692" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A692" s="1">
         <v>45617</v>
       </c>
@@ -10402,7 +10404,7 @@
         <v>9.5610749602791394</v>
       </c>
     </row>
-    <row r="693" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A693" s="1">
         <v>45618</v>
       </c>
@@ -10416,7 +10418,7 @@
         <v>9.5471153637112511</v>
       </c>
     </row>
-    <row r="694" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A694" s="1">
         <v>45619</v>
       </c>
@@ -10430,7 +10432,7 @@
         <v>9.5254026066999273</v>
       </c>
     </row>
-    <row r="695" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A695" s="1">
         <v>45620</v>
       </c>
@@ -10444,7 +10446,7 @@
         <v>9.5045594626864016</v>
       </c>
     </row>
-    <row r="696" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A696" s="1">
         <v>45621</v>
       </c>
@@ -10458,7 +10460,7 @@
         <v>9.4794613698529719</v>
       </c>
     </row>
-    <row r="697" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A697" s="1">
         <v>45622</v>
       </c>
@@ -10472,7 +10474,7 @@
         <v>9.4420594376730484</v>
       </c>
     </row>
-    <row r="698" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A698" s="1">
         <v>45623</v>
       </c>
@@ -10486,7 +10488,7 @@
         <v>9.4155764871611431</v>
       </c>
     </row>
-    <row r="699" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A699" s="1">
         <v>45624</v>
       </c>
@@ -10500,7 +10502,7 @@
         <v>9.3867869140925695</v>
       </c>
     </row>
-    <row r="700" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A700" s="1">
         <v>45625</v>
       </c>
@@ -10514,7 +10516,7 @@
         <v>9.3593828318777952</v>
       </c>
     </row>
-    <row r="701" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A701" s="1">
         <v>45626</v>
       </c>
@@ -10528,7 +10530,7 @@
         <v>9.3318411412723687</v>
       </c>
     </row>
-    <row r="702" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A702" s="1">
         <v>45627</v>
       </c>
@@ -10542,7 +10544,7 @@
         <v>8.979508868914273</v>
       </c>
     </row>
-    <row r="703" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A703" s="1">
         <v>45628</v>
       </c>
@@ -10556,7 +10558,7 @@
         <v>8.9727402197984816</v>
       </c>
     </row>
-    <row r="704" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A704" s="1">
         <v>45629</v>
       </c>
@@ -10570,7 +10572,7 @@
         <v>8.9931380194515871</v>
       </c>
     </row>
-    <row r="705" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A705" s="1">
         <v>45630</v>
       </c>
@@ -10584,7 +10586,7 @@
         <v>8.9726375422068756</v>
       </c>
     </row>
-    <row r="706" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A706" s="1">
         <v>45631</v>
       </c>
@@ -10598,7 +10600,7 @@
         <v>9.1100551751376404</v>
       </c>
     </row>
-    <row r="707" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A707" s="1">
         <v>45632</v>
       </c>
@@ -10612,7 +10614,7 @@
         <v>9.2169761896758473</v>
       </c>
     </row>
-    <row r="708" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A708" s="1">
         <v>45633</v>
       </c>
@@ -10626,7 +10628,7 @@
         <v>9.3171746524315804</v>
       </c>
     </row>
-    <row r="709" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A709" s="1">
         <v>45634</v>
       </c>
@@ -10640,7 +10642,7 @@
         <v>9.3922191457072675</v>
       </c>
     </row>
-    <row r="710" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A710" s="1">
         <v>45635</v>
       </c>
@@ -10654,7 +10656,7 @@
         <v>9.4892413872783994</v>
       </c>
     </row>
-    <row r="711" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A711" s="1">
         <v>45636</v>
       </c>
@@ -10668,7 +10670,7 @@
         <v>9.5248849060936376</v>
       </c>
     </row>
-    <row r="712" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A712" s="1">
         <v>45637</v>
       </c>
@@ -10682,7 +10684,7 @@
         <v>9.5609693000229736</v>
       </c>
     </row>
-    <row r="713" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A713" s="1">
         <v>45638</v>
       </c>
@@ -10696,7 +10698,7 @@
         <v>9.6204164231259295</v>
       </c>
     </row>
-    <row r="714" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A714" s="1">
         <v>45639</v>
       </c>
@@ -10710,7 +10712,7 @@
         <v>9.6935043849027824</v>
       </c>
     </row>
-    <row r="715" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A715" s="1">
         <v>45640</v>
       </c>
@@ -10724,7 +10726,7 @@
         <v>9.7531302063968042</v>
       </c>
     </row>
-    <row r="716" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A716" s="1">
         <v>45641</v>
       </c>
@@ -10738,7 +10740,7 @@
         <v>9.804739761992602</v>
       </c>
     </row>
-    <row r="717" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A717" s="1">
         <v>45642</v>
       </c>
@@ -10752,7 +10754,7 @@
         <v>9.8506689773750509</v>
       </c>
     </row>
-    <row r="718" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A718" s="1">
         <v>45643</v>
       </c>
@@ -10766,7 +10768,7 @@
         <v>9.8947343545239761</v>
       </c>
     </row>
-    <row r="719" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A719" s="1">
         <v>45644</v>
       </c>
@@ -10780,7 +10782,7 @@
         <v>9.9338335570348075</v>
       </c>
     </row>
-    <row r="720" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A720" s="1">
         <v>45645</v>
       </c>
@@ -10794,7 +10796,7 @@
         <v>9.9625782863677248</v>
       </c>
     </row>
-    <row r="721" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A721" s="1">
         <v>45646</v>
       </c>
@@ -10808,7 +10810,7 @@
         <v>9.9870015657690203</v>
       </c>
     </row>
-    <row r="722" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A722" s="1">
         <v>45647</v>
       </c>
@@ -10822,7 +10824,7 @@
         <v>10.015943290518081</v>
       </c>
     </row>
-    <row r="723" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A723" s="1">
         <v>45648</v>
       </c>
@@ -10836,7 +10838,7 @@
         <v>10.04122228730286</v>
       </c>
     </row>
-    <row r="724" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A724" s="1">
         <v>45649</v>
       </c>
@@ -10850,7 +10852,7 @@
         <v>10.076162278940551</v>
       </c>
     </row>
-    <row r="725" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A725" s="1">
         <v>45650</v>
       </c>
@@ -10864,7 +10866,7 @@
         <v>10.12498248205161</v>
       </c>
     </row>
-    <row r="726" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A726" s="1">
         <v>45651</v>
       </c>
@@ -10878,7 +10880,7 @@
         <v>10.171054823347911</v>
       </c>
     </row>
-    <row r="727" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A727" s="1">
         <v>45652</v>
       </c>
@@ -10892,7 +10894,7 @@
         <v>10.21256746825436</v>
       </c>
     </row>
-    <row r="728" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A728" s="1">
         <v>45653</v>
       </c>
@@ -10906,7 +10908,7 @@
         <v>10.247839979446031</v>
       </c>
     </row>
-    <row r="729" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A729" s="1">
         <v>45654</v>
       </c>
@@ -10920,7 +10922,7 @@
         <v>10.26964720145781</v>
       </c>
     </row>
-    <row r="730" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A730" s="1">
         <v>45655</v>
       </c>
@@ -10934,7 +10936,7 @@
         <v>10.289542047620481</v>
       </c>
     </row>
-    <row r="731" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A731" s="1">
         <v>45656</v>
       </c>
@@ -10948,7 +10950,7 @@
         <v>10.317011010288001</v>
       </c>
     </row>
-    <row r="732" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A732" s="1">
         <v>45657</v>
       </c>
@@ -10962,7 +10964,7 @@
         <v>10.34016269761908</v>
       </c>
     </row>
-    <row r="733" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A733" s="1">
         <v>45658</v>
       </c>
@@ -10976,7 +10978,7 @@
         <v>11.31538225890379</v>
       </c>
     </row>
-    <row r="734" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A734" s="1">
         <v>45659</v>
       </c>
@@ -10990,7 +10992,7 @@
         <v>11.32137321470401</v>
       </c>
     </row>
-    <row r="735" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A735" s="1">
         <v>45660</v>
       </c>
@@ -11004,7 +11006,7 @@
         <v>11.33917391719975</v>
       </c>
     </row>
-    <row r="736" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A736" s="1">
         <v>45661</v>
       </c>
@@ -11018,7 +11020,7 @@
         <v>11.34782618207629</v>
       </c>
     </row>
-    <row r="737" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A737" s="1">
         <v>45662</v>
       </c>
@@ -11032,7 +11034,7 @@
         <v>11.35281907190514</v>
       </c>
     </row>
-    <row r="738" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A738" s="1">
         <v>45663</v>
       </c>
@@ -11046,7 +11048,7 @@
         <v>11.35112062097944</v>
       </c>
     </row>
-    <row r="739" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A739" s="1">
         <v>45664</v>
       </c>
@@ -11060,7 +11062,7 @@
         <v>11.35635349506969</v>
       </c>
     </row>
-    <row r="740" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A740" s="1">
         <v>45665</v>
       </c>
@@ -11074,7 +11076,7 @@
         <v>11.358071614534239</v>
       </c>
     </row>
-    <row r="741" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A741" s="1">
         <v>45666</v>
       </c>
@@ -11088,7 +11090,7 @@
         <v>11.365161787973211</v>
       </c>
     </row>
-    <row r="742" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A742" s="1">
         <v>45667</v>
       </c>
@@ -11102,7 +11104,7 @@
         <v>11.496679948446079</v>
       </c>
     </row>
-    <row r="743" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A743" s="1">
         <v>45668</v>
       </c>
@@ -11116,7 +11118,7 @@
         <v>11.602218096081771</v>
       </c>
     </row>
-    <row r="744" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A744" s="1">
         <v>45669</v>
       </c>
@@ -11130,7 +11132,7 @@
         <v>11.69007991910882</v>
       </c>
     </row>
-    <row r="745" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A745" s="1">
         <v>45670</v>
       </c>
@@ -11144,7 +11146,7 @@
         <v>11.751955568268</v>
       </c>
     </row>
-    <row r="746" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A746" s="1">
         <v>45671</v>
       </c>
@@ -11158,7 +11160,7 @@
         <v>11.79970354243183</v>
       </c>
     </row>
-    <row r="747" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A747" s="1">
         <v>45672</v>
       </c>
@@ -11172,7 +11174,7 @@
         <v>11.851052182704541</v>
       </c>
     </row>
-    <row r="748" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A748" s="1">
         <v>45673</v>
       </c>
@@ -11186,7 +11188,7 @@
         <v>11.885559118252919</v>
       </c>
     </row>
-    <row r="749" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A749" s="1">
         <v>45674</v>
       </c>
@@ -11200,7 +11202,7 @@
         <v>11.91708965292402</v>
       </c>
     </row>
-    <row r="750" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A750" s="1">
         <v>45675</v>
       </c>
@@ -11214,7 +11216,7 @@
         <v>11.945059039296529</v>
       </c>
     </row>
-    <row r="751" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A751" s="1">
         <v>45676</v>
       </c>
@@ -11228,7 +11230,7 @@
         <v>11.97002956394393</v>
       </c>
     </row>
-    <row r="752" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A752" s="1">
         <v>45677</v>
       </c>
@@ -11242,7 +11244,7 @@
         <v>11.997014550043</v>
       </c>
     </row>
-    <row r="753" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A753" s="1">
         <v>45678</v>
       </c>
@@ -11256,7 +11258,7 @@
         <v>12.016593658837889</v>
       </c>
     </row>
-    <row r="754" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A754" s="1">
         <v>45679</v>
       </c>
@@ -11270,7 +11272,7 @@
         <v>12.030386282431669</v>
       </c>
     </row>
-    <row r="755" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A755" s="1">
         <v>45680</v>
       </c>
@@ -11284,7 +11286,7 @@
         <v>12.02816874580895</v>
       </c>
     </row>
-    <row r="756" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A756" s="1">
         <v>45681</v>
       </c>
@@ -11298,7 +11300,7 @@
         <v>12.00733589862166</v>
       </c>
     </row>
-    <row r="757" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A757" s="1">
         <v>45682</v>
       </c>
@@ -11312,7 +11314,7 @@
         <v>11.983796831966311</v>
       </c>
     </row>
-    <row r="758" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A758" s="1">
         <v>45683</v>
       </c>
@@ -11326,7 +11328,7 @@
         <v>11.962028478129371</v>
       </c>
     </row>
-    <row r="759" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A759" s="1">
         <v>45684</v>
       </c>
@@ -11340,7 +11342,7 @@
         <v>11.95108437405038</v>
       </c>
     </row>
-    <row r="760" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A760" s="1">
         <v>45685</v>
       </c>
@@ -11354,7 +11356,7 @@
         <v>11.951049102274739</v>
       </c>
     </row>
-    <row r="761" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A761" s="1">
         <v>45686</v>
       </c>
@@ -11368,7 +11370,7 @@
         <v>11.96561958136845</v>
       </c>
     </row>
-    <row r="762" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A762" s="1">
         <v>45687</v>
       </c>
@@ -11382,7 +11384,7 @@
         <v>11.980492721291</v>
       </c>
     </row>
-    <row r="763" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A763" s="1">
         <v>45688</v>
       </c>
@@ -11396,7 +11398,7 @@
         <v>11.9884186238137</v>
       </c>
     </row>
-    <row r="764" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A764" s="1">
         <v>45689</v>
       </c>
@@ -11410,7 +11412,7 @@
         <v>13.02829038666496</v>
       </c>
     </row>
-    <row r="765" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A765" s="1">
         <v>45690</v>
       </c>
@@ -11424,7 +11426,7 @@
         <v>13.027707580586281</v>
       </c>
     </row>
-    <row r="766" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A766" s="1">
         <v>45691</v>
       </c>
@@ -11438,7 +11440,7 @@
         <v>12.959020489494989</v>
       </c>
     </row>
-    <row r="767" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A767" s="1">
         <v>45692</v>
       </c>
@@ -11452,7 +11454,7 @@
         <v>12.981276008569781</v>
       </c>
     </row>
-    <row r="768" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A768" s="1">
         <v>45693</v>
       </c>
@@ -11466,7 +11468,7 @@
         <v>12.99726383391083</v>
       </c>
     </row>
-    <row r="769" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A769" s="1">
         <v>45694</v>
       </c>
@@ -11480,7 +11482,7 @@
         <v>13.02451911650472</v>
       </c>
     </row>
-    <row r="770" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A770" s="1">
         <v>45695</v>
       </c>
@@ -11494,7 +11496,7 @@
         <v>13.0740469904968</v>
       </c>
     </row>
-    <row r="771" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A771" s="1">
         <v>45696</v>
       </c>
@@ -11508,7 +11510,7 @@
         <v>13.11496490869534</v>
       </c>
     </row>
-    <row r="772" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A772" s="1">
         <v>45697</v>
       </c>
@@ -11522,7 +11524,7 @@
         <v>13.146660443721171</v>
       </c>
     </row>
-    <row r="773" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A773" s="1">
         <v>45698</v>
       </c>
@@ -11536,7 +11538,7 @@
         <v>13.23933066883709</v>
       </c>
     </row>
-    <row r="774" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A774" s="1">
         <v>45699</v>
       </c>
@@ -11550,7 +11552,7 @@
         <v>13.20721816022721</v>
       </c>
     </row>
-    <row r="775" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A775" s="1">
         <v>45700</v>
       </c>
@@ -11564,7 +11566,7 @@
         <v>13.16468906307081</v>
       </c>
     </row>
-    <row r="776" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A776" s="1">
         <v>45701</v>
       </c>
@@ -11578,7 +11580,7 @@
         <v>13.13144953040787</v>
       </c>
     </row>
-    <row r="777" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A777" s="1">
         <v>45702</v>
       </c>
@@ -11592,7 +11594,7 @@
         <v>13.119435851456959</v>
       </c>
     </row>
-    <row r="778" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A778" s="1">
         <v>45703</v>
       </c>
@@ -11606,7 +11608,7 @@
         <v>13.09771784762609</v>
       </c>
     </row>
-    <row r="779" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A779" s="1">
         <v>45704</v>
       </c>
@@ -11620,7 +11622,7 @@
         <v>13.07862796093805</v>
       </c>
     </row>
-    <row r="780" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A780" s="1">
         <v>45705</v>
       </c>
@@ -11634,7 +11636,7 @@
         <v>13.07933698155246</v>
       </c>
     </row>
-    <row r="781" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A781" s="1">
         <v>45706</v>
       </c>
@@ -11648,7 +11650,7 @@
         <v>13.078262485282441</v>
       </c>
     </row>
-    <row r="782" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A782" s="1">
         <v>45707</v>
       </c>
@@ -11662,7 +11664,7 @@
         <v>13.10091034930961</v>
       </c>
     </row>
-    <row r="783" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A783" s="1">
         <v>45708</v>
       </c>
@@ -11676,7 +11678,7 @@
         <v>13.11925424480674</v>
       </c>
     </row>
-    <row r="784" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A784" s="1">
         <v>45709</v>
       </c>
@@ -11690,7 +11692,7 @@
         <v>13.13010898517468</v>
       </c>
     </row>
-    <row r="785" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A785" s="1">
         <v>45710</v>
       </c>
@@ -11704,7 +11706,7 @@
         <v>13.125636562582709</v>
       </c>
     </row>
-    <row r="786" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A786" s="1">
         <v>45711</v>
       </c>
@@ -11718,7 +11720,7 @@
         <v>13.121492779634551</v>
       </c>
     </row>
-    <row r="787" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A787" s="1">
         <v>45712</v>
       </c>
@@ -11732,7 +11734,7 @@
         <v>13.12562793502468</v>
       </c>
     </row>
-    <row r="788" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A788" s="1">
         <v>45713</v>
       </c>
@@ -11746,7 +11748,7 @@
         <v>13.133883384281001</v>
       </c>
     </row>
-    <row r="789" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A789" s="1">
         <v>45714</v>
       </c>
@@ -11760,7 +11762,7 @@
         <v>13.137345870543401</v>
       </c>
     </row>
-    <row r="790" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A790" s="1">
         <v>45715</v>
       </c>
@@ -11774,7 +11776,7 @@
         <v>13.141597892790569</v>
       </c>
     </row>
-    <row r="791" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A791" s="1">
         <v>45716</v>
       </c>
@@ -11788,7 +11790,7 @@
         <v>13.143513448965511</v>
       </c>
     </row>
-    <row r="792" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A792" s="1">
         <v>45717</v>
       </c>
@@ -11802,7 +11804,7 @@
         <v>13.73044519907056</v>
       </c>
     </row>
-    <row r="793" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A793" s="1">
         <v>45718</v>
       </c>
@@ -11816,7 +11818,7 @@
         <v>13.729815138444961</v>
       </c>
     </row>
-    <row r="794" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A794" s="1">
         <v>45719</v>
       </c>
@@ -11830,7 +11832,7 @@
         <v>13.73691731470468</v>
       </c>
     </row>
-    <row r="795" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A795" s="1">
         <v>45720</v>
       </c>
@@ -11844,7 +11846,7 @@
         <v>13.74578047314697</v>
       </c>
     </row>
-    <row r="796" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A796" s="1">
         <v>45721</v>
       </c>
@@ -11858,7 +11860,7 @@
         <v>13.754952378999009</v>
       </c>
     </row>
-    <row r="797" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A797" s="1">
         <v>45722</v>
       </c>
@@ -11872,7 +11874,7 @@
         <v>13.774601878431049</v>
       </c>
     </row>
-    <row r="798" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A798" s="1">
         <v>45723</v>
       </c>
@@ -11886,7 +11888,7 @@
         <v>13.7923842083219</v>
       </c>
     </row>
-    <row r="799" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A799" s="1">
         <v>45724</v>
       </c>
@@ -11900,7 +11902,7 @@
         <v>13.75609383943592</v>
       </c>
     </row>
-    <row r="800" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A800" s="1">
         <v>45725</v>
       </c>
@@ -11914,7 +11916,7 @@
         <v>13.72772798349669</v>
       </c>
     </row>
-    <row r="801" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A801" s="1">
         <v>45726</v>
       </c>
@@ -11928,7 +11930,7 @@
         <v>13.669763363278721</v>
       </c>
     </row>
-    <row r="802" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A802" s="1">
         <v>45727</v>
       </c>
@@ -11942,7 +11944,7 @@
         <v>13.61259815928376</v>
       </c>
     </row>
-    <row r="803" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A803" s="1">
         <v>45728</v>
       </c>
@@ -11956,7 +11958,7 @@
         <v>13.586708891549801</v>
       </c>
     </row>
-    <row r="804" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A804" s="1">
         <v>45729</v>
       </c>
@@ -11970,7 +11972,7 @@
         <v>13.583847295131781</v>
       </c>
     </row>
-    <row r="805" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A805" s="1">
         <v>45730</v>
       </c>
@@ -11984,7 +11986,7 @@
         <v>13.656417049566601</v>
       </c>
     </row>
-    <row r="806" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A806" s="1">
         <v>45731</v>
       </c>
@@ -11998,7 +12000,7 @@
         <v>13.69645743672136</v>
       </c>
     </row>
-    <row r="807" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A807" s="1">
         <v>45732</v>
       </c>
@@ -12012,7 +12014,7 @@
         <v>13.73140614214574</v>
       </c>
     </row>
-    <row r="808" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A808" s="1">
         <v>45733</v>
       </c>
@@ -12026,7 +12028,7 @@
         <v>13.821939578700739</v>
       </c>
     </row>
-    <row r="809" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A809" s="1">
         <v>45734</v>
       </c>
@@ -12040,7 +12042,7 @@
         <v>13.90390844198463</v>
       </c>
     </row>
-    <row r="810" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A810" s="1">
         <v>45735</v>
       </c>
@@ -12054,7 +12056,7 @@
         <v>14.00025586890396</v>
       </c>
     </row>
-    <row r="811" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A811" s="1">
         <v>45736</v>
       </c>
@@ -12068,7 +12070,7 @@
         <v>14.092996026981551</v>
       </c>
     </row>
-    <row r="812" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A812" s="1">
         <v>45737</v>
       </c>
@@ -12082,7 +12084,7 @@
         <v>14.173238390417101</v>
       </c>
     </row>
-    <row r="813" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A813" s="1">
         <v>45738</v>
       </c>
@@ -12096,7 +12098,7 @@
         <v>14.243412606730709</v>
       </c>
     </row>
-    <row r="814" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A814" s="1">
         <v>45739</v>
       </c>
@@ -12110,7 +12112,7 @@
         <v>14.307424450609391</v>
       </c>
     </row>
-    <row r="815" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A815" s="1">
         <v>45740</v>
       </c>
@@ -12124,7 +12126,7 @@
         <v>14.381828152761789</v>
       </c>
     </row>
-    <row r="816" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A816" s="1">
         <v>45741</v>
       </c>
@@ -12138,7 +12140,7 @@
         <v>14.447390252158449</v>
       </c>
     </row>
-    <row r="817" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A817" s="1">
         <v>45742</v>
       </c>
@@ -12152,7 +12154,7 @@
         <v>14.463356072782821</v>
       </c>
     </row>
-    <row r="818" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A818" s="1">
         <v>45743</v>
       </c>
@@ -12166,7 +12168,7 @@
         <v>14.47043851552435</v>
       </c>
     </row>
-    <row r="819" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A819" s="1">
         <v>45744</v>
       </c>
@@ -12180,7 +12182,7 @@
         <v>14.469225000037261</v>
       </c>
     </row>
-    <row r="820" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A820" s="1">
         <v>45745</v>
       </c>
@@ -12194,7 +12196,7 @@
         <v>14.466148024883671</v>
       </c>
     </row>
-    <row r="821" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A821" s="1">
         <v>45746</v>
       </c>
@@ -12208,7 +12210,7 @@
         <v>14.46250650295341</v>
       </c>
     </row>
-    <row r="822" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A822" s="1">
         <v>45747</v>
       </c>
@@ -12222,7 +12224,7 @@
         <v>14.45386407422192</v>
       </c>
     </row>
-    <row r="823" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A823" s="1">
         <v>45748</v>
       </c>
@@ -12236,7 +12238,7 @@
         <v>14.700984624919659</v>
       </c>
     </row>
-    <row r="824" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A824" s="1">
         <v>45749</v>
       </c>
@@ -12250,7 +12252,7 @@
         <v>14.52597245802132</v>
       </c>
     </row>
-    <row r="825" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A825" s="1">
         <v>45750</v>
       </c>
@@ -12264,7 +12266,7 @@
         <v>14.54420923269014</v>
       </c>
     </row>
-    <row r="826" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A826" s="1">
         <v>45751</v>
       </c>
@@ -12278,7 +12280,7 @@
         <v>14.473028061584589</v>
       </c>
     </row>
-    <row r="827" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A827" s="1">
         <v>45752</v>
       </c>
@@ -12292,7 +12294,7 @@
         <v>14.434587260271821</v>
       </c>
     </row>
-    <row r="828" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A828" s="1">
         <v>45753</v>
       </c>
@@ -12306,7 +12308,7 @@
         <v>14.40871853615683</v>
       </c>
     </row>
-    <row r="829" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A829" s="1">
         <v>45754</v>
       </c>
@@ -12320,7 +12322,7 @@
         <v>14.42576762441872</v>
       </c>
     </row>
-    <row r="830" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A830" s="1">
         <v>45755</v>
       </c>
@@ -12334,7 +12336,7 @@
         <v>14.523492238451301</v>
       </c>
     </row>
-    <row r="831" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A831" s="1">
         <v>45756</v>
       </c>
@@ -12348,7 +12350,7 @@
         <v>14.59957466527</v>
       </c>
     </row>
-    <row r="832" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A832" s="1">
         <v>45757</v>
       </c>
@@ -12365,7 +12367,7 @@
         <v>14.59957466527</v>
       </c>
     </row>
-    <row r="833" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A833" s="1">
         <v>45758</v>
       </c>
